--- a/docs/Examples/Diad_Fitting_Nov22nd2022/Weak_Diads.xlsx
+++ b/docs/Examples/Diad_Fitting_Nov22nd2022/Weak_Diads.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="55">
   <si>
     <t>filename</t>
   </si>
@@ -37,9 +37,6 @@
     <t>Diad1_Voigt_Sigma</t>
   </si>
   <si>
-    <t>Diad1_Voigt_Gamma</t>
-  </si>
-  <si>
     <t>Residual_Diad1</t>
   </si>
   <si>
@@ -88,73 +85,100 @@
     <t>HB1_Area</t>
   </si>
   <si>
+    <t>HB1_Sigma</t>
+  </si>
+  <si>
     <t>HB2_Cent</t>
   </si>
   <si>
     <t>HB2_Area</t>
   </si>
   <si>
+    <t>HB2_Sigma</t>
+  </si>
+  <si>
     <t>C13_Cent</t>
   </si>
   <si>
     <t>C13_Area</t>
   </si>
   <si>
+    <t>C13_Sigma</t>
+  </si>
+  <si>
+    <t>POC35</t>
+  </si>
+  <si>
+    <t>POC36</t>
+  </si>
+  <si>
+    <t>POC37</t>
+  </si>
+  <si>
+    <t>POC38</t>
+  </si>
+  <si>
+    <t>POC39</t>
+  </si>
+  <si>
+    <t>POC40</t>
+  </si>
+  <si>
+    <t>POC41</t>
+  </si>
+  <si>
+    <t>POC42</t>
+  </si>
+  <si>
+    <t>POC43</t>
+  </si>
+  <si>
+    <t>POC44</t>
+  </si>
+  <si>
+    <t>POC45</t>
+  </si>
+  <si>
+    <t>POC46</t>
+  </si>
+  <si>
+    <t>POC47</t>
+  </si>
+  <si>
+    <t>POC48</t>
+  </si>
+  <si>
+    <t>POC49</t>
+  </si>
+  <si>
+    <t>POC50</t>
+  </si>
+  <si>
+    <t>POC51</t>
+  </si>
+  <si>
+    <t>POC52</t>
+  </si>
+  <si>
+    <t>POC53</t>
+  </si>
+  <si>
+    <t>POC54</t>
+  </si>
+  <si>
+    <t>POC55</t>
+  </si>
+  <si>
+    <t>POC56</t>
+  </si>
+  <si>
+    <t>POC57-0.04</t>
+  </si>
+  <si>
     <t>POC58</t>
   </si>
   <si>
-    <t>POC56</t>
-  </si>
-  <si>
-    <t>POC57-0.04</t>
-  </si>
-  <si>
-    <t>POC55</t>
-  </si>
-  <si>
-    <t>POC51</t>
-  </si>
-  <si>
-    <t>POC54</t>
-  </si>
-  <si>
-    <t>POC53</t>
-  </si>
-  <si>
-    <t>POC50</t>
-  </si>
-  <si>
-    <t>POC52</t>
-  </si>
-  <si>
-    <t>POC49</t>
-  </si>
-  <si>
-    <t>POC48</t>
-  </si>
-  <si>
-    <t>POC47</t>
-  </si>
-  <si>
-    <t>POC46</t>
-  </si>
-  <si>
-    <t>POC45</t>
-  </si>
-  <si>
-    <t>POC44</t>
-  </si>
-  <si>
-    <t>POC43</t>
-  </si>
-  <si>
-    <t>POC42</t>
-  </si>
-  <si>
-    <t>POC41</t>
-  </si>
-  <si>
-    <t>POC40</t>
+    <t>Flagged Warnings:</t>
   </si>
 </sst>
 </file>
@@ -512,13 +536,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC20"/>
+  <dimension ref="A1:AE25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:31">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -603,1411 +627,1571 @@
       <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:29">
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C2">
-        <v>102.727425322516</v>
+        <v>102.8852826851687</v>
       </c>
       <c r="D2">
-        <v>1286.718255443355</v>
+        <v>1286.308123931749</v>
       </c>
       <c r="E2">
-        <v>119.5737257891648</v>
+        <v>3727.037089592493</v>
       </c>
       <c r="F2">
-        <v>1286.718255443355</v>
+        <v>1286.308123931749</v>
       </c>
       <c r="G2">
-        <v>154.4192068871691</v>
+        <v>6232.818430741061</v>
       </c>
       <c r="H2">
-        <v>0.6066013132924214</v>
+        <v>0.6899593541510802</v>
+      </c>
+      <c r="I2">
+        <v>11.1024412006071</v>
       </c>
       <c r="J2">
-        <v>2.282335809399884</v>
+        <v>0.3818553710834165</v>
       </c>
       <c r="K2">
-        <v>1.317027747971267E-08</v>
-      </c>
-      <c r="L2">
-        <v>1.213202626584843</v>
-      </c>
-      <c r="M2" t="b">
-        <v>0</v>
+        <v>1.37991870830216</v>
+      </c>
+      <c r="L2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M2">
+        <v>1389.193406616918</v>
       </c>
       <c r="N2">
-        <v>1389.445680765871</v>
+        <v>5894.306672821345</v>
       </c>
       <c r="O2">
-        <v>195.1998094738932</v>
+        <v>1389.193406616918</v>
       </c>
       <c r="P2">
-        <v>1389.445680765871</v>
+        <v>9008.843621551674</v>
       </c>
       <c r="Q2">
-        <v>241.5833628856723</v>
-      </c>
-      <c r="R2">
-        <v>0.5675010933943885</v>
+        <v>0.6348972485236971</v>
+      </c>
+      <c r="S2">
+        <v>15.74598075394724</v>
       </c>
       <c r="T2">
-        <v>2.026593199972371</v>
+        <v>0.3625548702243288</v>
       </c>
       <c r="U2">
-        <v>0.07381799747474632</v>
-      </c>
-      <c r="V2">
-        <v>1.135002186788777</v>
-      </c>
-      <c r="W2" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29">
+        <v>1.269794497047394</v>
+      </c>
+      <c r="V2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31">
       <c r="A3" s="1">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C3">
-        <v>102.7293310900761</v>
+        <v>102.8588943165466</v>
       </c>
       <c r="D3">
-        <v>1286.714105675031</v>
+        <v>1286.380164422178</v>
       </c>
       <c r="E3">
-        <v>131.751517907069</v>
+        <v>3190.855505345823</v>
       </c>
       <c r="F3">
-        <v>1286.714105675031</v>
+        <v>1286.380164422178</v>
       </c>
       <c r="G3">
-        <v>174.262314477574</v>
+        <v>5128.240825778006</v>
       </c>
       <c r="H3">
-        <v>0.6212775108743822</v>
+        <v>0.6689626053283104</v>
+      </c>
+      <c r="I3">
+        <v>10.22276256114136</v>
       </c>
       <c r="J3">
-        <v>2.924421006622639</v>
+        <v>0.3571894977771339</v>
       </c>
       <c r="K3">
-        <v>6.744834779581765E-08</v>
-      </c>
-      <c r="L3">
-        <v>1.242555021748764</v>
-      </c>
-      <c r="M3" t="b">
-        <v>0</v>
+        <v>1.337925210656621</v>
+      </c>
+      <c r="L3" t="s">
+        <v>54</v>
+      </c>
+      <c r="M3">
+        <v>1389.239058738725</v>
       </c>
       <c r="N3">
-        <v>1389.443436765107</v>
+        <v>4926.307018627889</v>
       </c>
       <c r="O3">
-        <v>236.2459699873077</v>
+        <v>1389.239058738725</v>
       </c>
       <c r="P3">
-        <v>1389.443436765107</v>
+        <v>7357.066110412962</v>
       </c>
       <c r="Q3">
-        <v>293.3818883888195</v>
-      </c>
-      <c r="R3">
-        <v>0.5140466969564444</v>
+        <v>0.6220107773546536</v>
+      </c>
+      <c r="S3">
+        <v>13.9854354056946</v>
       </c>
       <c r="T3">
-        <v>2.812964838566933</v>
+        <v>0.3545575741949497</v>
       </c>
       <c r="U3">
-        <v>0.3684210742928522</v>
-      </c>
-      <c r="V3">
-        <v>1.028093393912889</v>
-      </c>
-      <c r="W3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29">
+        <v>1.244021554709307</v>
+      </c>
+      <c r="V3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31">
       <c r="A4" s="1">
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C4">
-        <v>102.7576756071965</v>
+        <v>102.8337134593769</v>
       </c>
       <c r="D4">
-        <v>1286.687838748783</v>
+        <v>1286.448246385185</v>
       </c>
       <c r="E4">
-        <v>127.2695594475281</v>
+        <v>2444.504770952816</v>
       </c>
       <c r="F4">
-        <v>1286.687838748783</v>
+        <v>1286.448246385185</v>
       </c>
       <c r="G4">
-        <v>161.4999273493917</v>
+        <v>3841.797300099158</v>
       </c>
       <c r="H4">
-        <v>0.5960539658736845</v>
+        <v>0.6591320000296416</v>
+      </c>
+      <c r="I4">
+        <v>7.732273021123317</v>
       </c>
       <c r="J4">
-        <v>2.423679908773246</v>
+        <v>0.3353878738396449</v>
       </c>
       <c r="K4">
-        <v>4.740491554855453E-09</v>
-      </c>
-      <c r="L4">
-        <v>1.192107931747369</v>
-      </c>
-      <c r="M4" t="b">
-        <v>0</v>
+        <v>1.318264000059283</v>
+      </c>
+      <c r="L4" t="s">
+        <v>54</v>
+      </c>
+      <c r="M4">
+        <v>1389.281959844562</v>
       </c>
       <c r="N4">
-        <v>1389.445514355979</v>
+        <v>3849.513562993182</v>
       </c>
       <c r="O4">
-        <v>212.8167478960769</v>
+        <v>1389.281959844562</v>
       </c>
       <c r="P4">
-        <v>1389.445514355979</v>
+        <v>5588.914475272064</v>
       </c>
       <c r="Q4">
-        <v>269.755740497562</v>
-      </c>
-      <c r="R4">
-        <v>0.5650607594405354</v>
+        <v>0.6111128173659559</v>
+      </c>
+      <c r="S4">
+        <v>10.74990345825909</v>
       </c>
       <c r="T4">
-        <v>5.291009559501791</v>
+        <v>0.3258584560973545</v>
       </c>
       <c r="U4">
-        <v>0.1580404329496142</v>
-      </c>
-      <c r="V4">
-        <v>1.130121518881071</v>
-      </c>
-      <c r="W4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29">
+        <v>1.222225634731912</v>
+      </c>
+      <c r="V4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31">
       <c r="A5" s="1">
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C5">
-        <v>102.7281908334755</v>
+        <v>102.8110678735036</v>
       </c>
       <c r="D5">
-        <v>1286.707300835323</v>
+        <v>1286.490986147648</v>
       </c>
       <c r="E5">
-        <v>157.3937421512043</v>
+        <v>2228.305178502642</v>
       </c>
       <c r="F5">
-        <v>1286.707300835323</v>
+        <v>1286.490986147648</v>
       </c>
       <c r="G5">
-        <v>210.7788702333957</v>
+        <v>3445.381890948252</v>
       </c>
       <c r="H5">
-        <v>0.6290387331702414</v>
+        <v>0.6521759237079335</v>
+      </c>
+      <c r="I5">
+        <v>7.012395841518764</v>
       </c>
       <c r="J5">
-        <v>2.895239030085386</v>
+        <v>0.3198376410962213</v>
       </c>
       <c r="K5">
-        <v>1.104343896884963E-07</v>
-      </c>
-      <c r="L5">
-        <v>1.258077466340483</v>
-      </c>
-      <c r="M5" t="b">
-        <v>0</v>
+        <v>1.304351847415867</v>
+      </c>
+      <c r="L5" t="s">
+        <v>54</v>
+      </c>
+      <c r="M5">
+        <v>1389.302054021151</v>
       </c>
       <c r="N5">
-        <v>1389.435491668798</v>
+        <v>3449.023462145636</v>
       </c>
       <c r="O5">
-        <v>264.4856811377941</v>
+        <v>1389.302054021151</v>
       </c>
       <c r="P5">
-        <v>1389.435491668798</v>
+        <v>4955.665356566187</v>
       </c>
       <c r="Q5">
-        <v>322.8185831721541</v>
-      </c>
-      <c r="R5">
-        <v>0.5733161211108523</v>
+        <v>0.6109092975542486</v>
+      </c>
+      <c r="S5">
+        <v>10.21481820320279</v>
       </c>
       <c r="T5">
-        <v>2.884913361867639</v>
+        <v>0.2969113367668841</v>
       </c>
       <c r="U5">
-        <v>9.346590723602333E-10</v>
-      </c>
-      <c r="V5">
-        <v>1.146632242221705</v>
-      </c>
-      <c r="W5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29">
+        <v>1.221818595108497</v>
+      </c>
+      <c r="V5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31">
       <c r="A6" s="1">
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C6">
-        <v>102.7407460895574</v>
+        <v>102.8074970899663</v>
       </c>
       <c r="D6">
-        <v>1286.696529161793</v>
+        <v>1286.514190225702</v>
       </c>
       <c r="E6">
-        <v>183.276229560841</v>
+        <v>2007.683844480237</v>
       </c>
       <c r="F6">
-        <v>1286.696529161793</v>
+        <v>1286.514190225702</v>
       </c>
       <c r="G6">
-        <v>250.703563141943</v>
+        <v>3101.911862948164</v>
       </c>
       <c r="H6">
-        <v>0.6075105247405965</v>
+        <v>0.6527628513770665</v>
+      </c>
+      <c r="I6">
+        <v>6.835193750003087</v>
       </c>
       <c r="J6">
-        <v>2.697509940224195</v>
+        <v>0.3151898157264015</v>
       </c>
       <c r="K6">
-        <v>0.1690757392520508</v>
-      </c>
-      <c r="L6">
-        <v>1.215021049481193</v>
-      </c>
-      <c r="M6" t="b">
-        <v>0</v>
+        <v>1.305525702754133</v>
+      </c>
+      <c r="L6" t="s">
+        <v>54</v>
+      </c>
+      <c r="M6">
+        <v>1389.321687315669</v>
       </c>
       <c r="N6">
-        <v>1389.43727525135</v>
+        <v>3152.668105694176</v>
       </c>
       <c r="O6">
-        <v>290.4701350697905</v>
+        <v>1389.321687315669</v>
       </c>
       <c r="P6">
-        <v>1389.43727525135</v>
+        <v>4481.934702771769</v>
       </c>
       <c r="Q6">
-        <v>379.9668861970235</v>
-      </c>
-      <c r="R6">
-        <v>0.5815098648227952</v>
+        <v>0.6023250889566958</v>
+      </c>
+      <c r="S6">
+        <v>9.11820431459876</v>
       </c>
       <c r="T6">
-        <v>2.725495089251247</v>
+        <v>0.307192417639629</v>
       </c>
       <c r="U6">
-        <v>0.1662824079811909</v>
-      </c>
-      <c r="V6">
-        <v>1.16301972964559</v>
-      </c>
-      <c r="W6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29">
+        <v>1.204650177913392</v>
+      </c>
+      <c r="V6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31">
       <c r="A7" s="1">
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C7">
-        <v>102.7591811751622</v>
+        <v>102.8040387274882</v>
       </c>
       <c r="D7">
-        <v>1286.683945519567</v>
+        <v>1286.536014129802</v>
       </c>
       <c r="E7">
-        <v>184.0340939534237</v>
+        <v>1867.760972757369</v>
       </c>
       <c r="F7">
-        <v>1286.683945519567</v>
+        <v>1286.536014129802</v>
       </c>
       <c r="G7">
-        <v>242.334954883614</v>
+        <v>2810.548561586831</v>
       </c>
       <c r="H7">
-        <v>0.618522591731093</v>
+        <v>0.6440627948779768</v>
+      </c>
+      <c r="I7">
+        <v>6.735633149670592</v>
       </c>
       <c r="J7">
-        <v>2.988295480868691</v>
+        <v>0.2813137241883331</v>
       </c>
       <c r="K7">
-        <v>6.308953359734915E-12</v>
-      </c>
-      <c r="L7">
-        <v>1.237045183462186</v>
-      </c>
-      <c r="M7" t="b">
-        <v>0</v>
+        <v>1.288125589755954</v>
+      </c>
+      <c r="L7" t="s">
+        <v>54</v>
+      </c>
+      <c r="M7">
+        <v>1389.34005285729</v>
       </c>
       <c r="N7">
-        <v>1389.44312669473</v>
+        <v>2908.135006714874</v>
       </c>
       <c r="O7">
-        <v>302.9924004248714</v>
+        <v>1389.34005285729</v>
       </c>
       <c r="P7">
-        <v>1389.44312669473</v>
+        <v>4061.283591887488</v>
       </c>
       <c r="Q7">
-        <v>377.7881528179833</v>
-      </c>
-      <c r="R7">
-        <v>0.5827858953824701</v>
+        <v>0.5966377915107628</v>
+      </c>
+      <c r="S7">
+        <v>7.801613213556614</v>
       </c>
       <c r="T7">
-        <v>3.356459928856103</v>
+        <v>0.2840793323226457</v>
       </c>
       <c r="U7">
-        <v>0.01528727624404946</v>
-      </c>
-      <c r="V7">
-        <v>1.16557179076494</v>
-      </c>
-      <c r="W7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29">
+        <v>1.193275583021526</v>
+      </c>
+      <c r="V7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31">
       <c r="A8" s="1">
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C8">
-        <v>102.7606900718947</v>
+        <v>102.7771988590448</v>
       </c>
       <c r="D8">
-        <v>1286.675362632151</v>
+        <v>1286.565686387163</v>
       </c>
       <c r="E8">
-        <v>220.6278776693655</v>
+        <v>1586.937231279491</v>
       </c>
       <c r="F8">
-        <v>1286.675362632151</v>
+        <v>1286.565686387163</v>
       </c>
       <c r="G8">
-        <v>287.6873947894792</v>
+        <v>2354.903020286851</v>
       </c>
       <c r="H8">
-        <v>0.6027422551917115</v>
+        <v>0.6306015471074872</v>
+      </c>
+      <c r="I8">
+        <v>5.219751806727926</v>
       </c>
       <c r="J8">
-        <v>2.958261250793861</v>
+        <v>0.3007944113962994</v>
       </c>
       <c r="K8">
-        <v>0.04936790507209021</v>
-      </c>
-      <c r="L8">
-        <v>1.205484510383423</v>
-      </c>
-      <c r="M8" t="b">
-        <v>0</v>
+        <v>1.261203094214974</v>
+      </c>
+      <c r="L8" t="s">
+        <v>54</v>
+      </c>
+      <c r="M8">
+        <v>1389.342885246208</v>
       </c>
       <c r="N8">
-        <v>1389.436052704046</v>
+        <v>2491.707501484841</v>
       </c>
       <c r="O8">
-        <v>348.6055896034753</v>
+        <v>1389.342885246208</v>
       </c>
       <c r="P8">
-        <v>1389.436052704046</v>
+        <v>3447.793397358598</v>
       </c>
       <c r="Q8">
-        <v>440.9355719491104</v>
-      </c>
-      <c r="R8">
-        <v>0.5838887841442392</v>
+        <v>0.5878557513043577</v>
+      </c>
+      <c r="S8">
+        <v>7.587696023407806</v>
       </c>
       <c r="T8">
-        <v>3.223045525392184</v>
+        <v>0.2994982703231469</v>
       </c>
       <c r="U8">
-        <v>0.05345538535207595</v>
-      </c>
-      <c r="V8">
-        <v>1.167777568288478</v>
-      </c>
-      <c r="W8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29">
+        <v>1.175711502608715</v>
+      </c>
+      <c r="V8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31">
       <c r="A9" s="1">
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C9">
-        <v>102.7260821918762</v>
+        <v>102.7815382973968</v>
       </c>
       <c r="D9">
-        <v>1286.691038857857</v>
+        <v>1286.584262950371</v>
       </c>
       <c r="E9">
-        <v>256.9119380561897</v>
+        <v>1307.347071946816</v>
       </c>
       <c r="F9">
-        <v>1286.691038857857</v>
+        <v>1286.584262950371</v>
       </c>
       <c r="G9">
-        <v>340.578948732439</v>
+        <v>1925.645146468035</v>
       </c>
       <c r="H9">
-        <v>0.6017085275388498</v>
+        <v>0.6387697084135934</v>
+      </c>
+      <c r="I9">
+        <v>4.59544429484717</v>
       </c>
       <c r="J9">
-        <v>2.291054099730834</v>
+        <v>0.2400596003862082</v>
       </c>
       <c r="K9">
-        <v>0.1045283598061759</v>
-      </c>
-      <c r="L9">
-        <v>1.2034170550777</v>
-      </c>
-      <c r="M9" t="b">
-        <v>0</v>
+        <v>1.277539416827187</v>
+      </c>
+      <c r="L9" t="s">
+        <v>54</v>
+      </c>
+      <c r="M9">
+        <v>1389.365801247767</v>
       </c>
       <c r="N9">
-        <v>1389.417121049734</v>
+        <v>2061.200370292417</v>
       </c>
       <c r="O9">
-        <v>403.2764586490148</v>
+        <v>1389.365801247767</v>
       </c>
       <c r="P9">
-        <v>1389.417121049734</v>
+        <v>2821.812805848746</v>
       </c>
       <c r="Q9">
-        <v>520.8929040249727</v>
-      </c>
-      <c r="R9">
-        <v>0.5797676661375795</v>
+        <v>0.5912601342934916</v>
+      </c>
+      <c r="S9">
+        <v>6.181867613488521</v>
       </c>
       <c r="T9">
-        <v>2.234457232797255</v>
+        <v>0.2517437644879544</v>
       </c>
       <c r="U9">
-        <v>0.1377807063038709</v>
-      </c>
-      <c r="V9">
-        <v>1.159535332275159</v>
-      </c>
-      <c r="W9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AC9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29">
+        <v>1.182520268586983</v>
+      </c>
+      <c r="V9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31">
       <c r="A10" s="1">
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C10">
-        <v>102.7348828367892</v>
+        <v>102.7714197141695</v>
       </c>
       <c r="D10">
-        <v>1286.689150305508</v>
+        <v>1286.598050096833</v>
       </c>
       <c r="E10">
-        <v>247.3553251126871</v>
+        <v>1087.840056147627</v>
       </c>
       <c r="F10">
-        <v>1286.689150305508</v>
+        <v>1286.598050096833</v>
       </c>
       <c r="G10">
-        <v>319.7279820183408</v>
+        <v>1589.584191831058</v>
       </c>
       <c r="H10">
-        <v>0.5924303862684177</v>
+        <v>0.6327965147283574</v>
+      </c>
+      <c r="I10">
+        <v>4.106269078034286</v>
       </c>
       <c r="J10">
-        <v>3.486821847669535</v>
+        <v>0.2442524700942373</v>
       </c>
       <c r="K10">
-        <v>0.07522020419054815</v>
-      </c>
-      <c r="L10">
-        <v>1.184860772536835</v>
-      </c>
-      <c r="M10" t="b">
-        <v>0</v>
+        <v>1.265593029456715</v>
+      </c>
+      <c r="L10" t="s">
+        <v>54</v>
+      </c>
+      <c r="M10">
+        <v>1389.369469811003</v>
       </c>
       <c r="N10">
-        <v>1389.424033142298</v>
+        <v>1729.682582014369</v>
       </c>
       <c r="O10">
-        <v>385.1247381648434</v>
+        <v>1389.369469811003</v>
       </c>
       <c r="P10">
-        <v>1389.424033142298</v>
+        <v>2368.700809873425</v>
       </c>
       <c r="Q10">
-        <v>490.5525178140197</v>
-      </c>
-      <c r="R10">
-        <v>0.5856616243319552</v>
+        <v>0.5965079361790312</v>
+      </c>
+      <c r="S10">
+        <v>5.318633453721</v>
       </c>
       <c r="T10">
-        <v>3.046622642713738</v>
+        <v>0.2279862099418969</v>
       </c>
       <c r="U10">
-        <v>0.06555300523104951</v>
-      </c>
-      <c r="V10">
-        <v>1.17132324866391</v>
-      </c>
-      <c r="W10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29">
+        <v>1.193015872358062</v>
+      </c>
+      <c r="V10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31">
       <c r="A11" s="1">
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C11">
-        <v>102.7469739365047</v>
+        <v>102.7691343055676</v>
       </c>
       <c r="D11">
-        <v>1286.664006158708</v>
+        <v>1286.609839298173</v>
       </c>
       <c r="E11">
-        <v>372.146576186724</v>
+        <v>1027.777608194669</v>
       </c>
       <c r="F11">
-        <v>1286.664006158708</v>
+        <v>1286.609839298173</v>
       </c>
       <c r="G11">
-        <v>502.5301797850845</v>
+        <v>1487.657652549584</v>
       </c>
       <c r="H11">
-        <v>0.6082538081250028</v>
+        <v>0.6243753732908764</v>
+      </c>
+      <c r="I11">
+        <v>3.775415125849857</v>
       </c>
       <c r="J11">
-        <v>2.409475010722592</v>
+        <v>0.2562430994610518</v>
       </c>
       <c r="K11">
-        <v>0.1273300228426545</v>
-      </c>
-      <c r="L11">
-        <v>1.216507616250006</v>
-      </c>
-      <c r="M11" t="b">
-        <v>0</v>
+        <v>1.248750746581753</v>
+      </c>
+      <c r="L11" t="s">
+        <v>54</v>
+      </c>
+      <c r="M11">
+        <v>1389.378973603741</v>
       </c>
       <c r="N11">
-        <v>1389.410980095213</v>
+        <v>1588.754435630035</v>
       </c>
       <c r="O11">
-        <v>579.6725497686634</v>
+        <v>1389.378973603741</v>
       </c>
       <c r="P11">
-        <v>1389.410980095213</v>
+        <v>2161.956783128747</v>
       </c>
       <c r="Q11">
-        <v>765.3053929407965</v>
-      </c>
-      <c r="R11">
-        <v>0.5811325440183646</v>
+        <v>0.5914842725622226</v>
+      </c>
+      <c r="S11">
+        <v>4.762414974899071</v>
       </c>
       <c r="T11">
-        <v>2.763872165791728</v>
+        <v>0.2338344264176801</v>
       </c>
       <c r="U11">
-        <v>0.1951398510133675</v>
-      </c>
-      <c r="V11">
-        <v>1.162265088036729</v>
-      </c>
-      <c r="W11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y11">
-        <v>0</v>
-      </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
-      <c r="AC11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29">
+        <v>1.182968545124445</v>
+      </c>
+      <c r="V11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31">
       <c r="A12" s="1">
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C12">
-        <v>102.758725919226</v>
+        <v>102.7603751106333</v>
       </c>
       <c r="D12">
-        <v>1286.652688640082</v>
+        <v>1286.618259329822</v>
       </c>
       <c r="E12">
-        <v>519.2129876159771</v>
+        <v>868.023035015299</v>
       </c>
       <c r="F12">
-        <v>1286.652688640082</v>
+        <v>1286.618259329822</v>
       </c>
       <c r="G12">
-        <v>720.0792111331339</v>
+        <v>1245.046580756047</v>
       </c>
       <c r="H12">
-        <v>0.5995192264805064</v>
+        <v>0.6333468676816256</v>
+      </c>
+      <c r="I12">
+        <v>3.625328474368101</v>
       </c>
       <c r="J12">
-        <v>3.105640785962716</v>
+        <v>0.1858310402414283</v>
       </c>
       <c r="K12">
-        <v>0.2472472976211075</v>
-      </c>
-      <c r="L12">
-        <v>1.199038452961013</v>
-      </c>
-      <c r="M12" t="b">
-        <v>0</v>
+        <v>1.266693735363251</v>
+      </c>
+      <c r="L12" t="s">
+        <v>54</v>
+      </c>
+      <c r="M12">
+        <v>1389.378634440456</v>
       </c>
       <c r="N12">
-        <v>1389.411414559308</v>
+        <v>1386.555621688759</v>
       </c>
       <c r="O12">
-        <v>792.7910921823723</v>
+        <v>1389.378634440456</v>
       </c>
       <c r="P12">
-        <v>1389.411414559308</v>
+        <v>1873.049915900557</v>
       </c>
       <c r="Q12">
-        <v>1051.293993900647</v>
-      </c>
-      <c r="R12">
-        <v>0.5866487900742201</v>
+        <v>0.5849931974457844</v>
+      </c>
+      <c r="S12">
+        <v>4.321871886626628</v>
       </c>
       <c r="T12">
-        <v>3.208597241653366</v>
+        <v>0.2439984422201698</v>
       </c>
       <c r="U12">
-        <v>0.1804455883487353</v>
-      </c>
-      <c r="V12">
-        <v>1.17329758014844</v>
-      </c>
-      <c r="W12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
-      <c r="AC12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29">
+        <v>1.169986394891569</v>
+      </c>
+      <c r="V12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31">
       <c r="A13" s="1">
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C13">
-        <v>102.75386074222</v>
+        <v>102.7518598017359</v>
       </c>
       <c r="D13">
-        <v>1286.643956819712</v>
+        <v>1286.640375210971</v>
       </c>
       <c r="E13">
-        <v>645.9824146403985</v>
+        <v>754.3527411041271</v>
       </c>
       <c r="F13">
-        <v>1286.643956819712</v>
+        <v>1286.640375210971</v>
       </c>
       <c r="G13">
-        <v>909.1927091288566</v>
+        <v>1075.608190306892</v>
       </c>
       <c r="H13">
-        <v>0.6154552197025949</v>
+        <v>0.613905429729078</v>
+      </c>
+      <c r="I13">
+        <v>3.043586691149467</v>
       </c>
       <c r="J13">
-        <v>3.375186900647974</v>
+        <v>0.2613669533742186</v>
       </c>
       <c r="K13">
-        <v>0.2142348412901233</v>
-      </c>
-      <c r="L13">
-        <v>1.23091043940519</v>
-      </c>
-      <c r="M13" t="b">
-        <v>0</v>
+        <v>1.227810859458156</v>
+      </c>
+      <c r="L13" t="s">
+        <v>54</v>
+      </c>
+      <c r="M13">
+        <v>1389.392235012707</v>
       </c>
       <c r="N13">
-        <v>1389.397817561932</v>
+        <v>1182.120633093735</v>
       </c>
       <c r="O13">
-        <v>1012.515538554215</v>
+        <v>1389.392235012707</v>
       </c>
       <c r="P13">
-        <v>1389.397817561932</v>
+        <v>1587.718044904528</v>
       </c>
       <c r="Q13">
-        <v>1353.602697466669</v>
-      </c>
-      <c r="R13">
-        <v>0.5860525526393221</v>
+        <v>0.5885791452233003</v>
+      </c>
+      <c r="S13">
+        <v>3.768944246930918</v>
       </c>
       <c r="T13">
-        <v>3.660631488762057</v>
+        <v>0.2103334207223209</v>
       </c>
       <c r="U13">
-        <v>0.2070049169039558</v>
-      </c>
-      <c r="V13">
-        <v>1.172105105278644</v>
-      </c>
-      <c r="W13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y13">
-        <v>0</v>
-      </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
-      <c r="AC13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29">
+        <v>1.177158290446601</v>
+      </c>
+      <c r="V13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31">
       <c r="A14" s="1">
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C14">
-        <v>102.7518130489093</v>
+        <v>102.7540133101231</v>
       </c>
       <c r="D14">
-        <v>1286.640340426428</v>
+        <v>1286.643889621147</v>
       </c>
       <c r="E14">
-        <v>752.9243766980661</v>
+        <v>643.3711320918654</v>
       </c>
       <c r="F14">
-        <v>1286.640340426428</v>
+        <v>1286.643889621147</v>
       </c>
       <c r="G14">
-        <v>1072.207002908181</v>
+        <v>897.1267074617749</v>
       </c>
       <c r="H14">
-        <v>0.6142758753381807</v>
+        <v>0.6171799754713834</v>
+      </c>
+      <c r="I14">
+        <v>2.866052636563009</v>
       </c>
       <c r="J14">
-        <v>4.005181261557076</v>
+        <v>0.1786630546388181</v>
       </c>
       <c r="K14">
-        <v>0.2533691335882275</v>
-      </c>
-      <c r="L14">
-        <v>1.228551750676361</v>
-      </c>
-      <c r="M14" t="b">
-        <v>0</v>
+        <v>1.234359950942767</v>
+      </c>
+      <c r="L14" t="s">
+        <v>54</v>
+      </c>
+      <c r="M14">
+        <v>1389.39790293127</v>
       </c>
       <c r="N14">
-        <v>1389.392153475337</v>
+        <v>1010.955326495503</v>
       </c>
       <c r="O14">
-        <v>1184.821509465068</v>
+        <v>1389.39790293127</v>
       </c>
       <c r="P14">
-        <v>1389.392153475337</v>
+        <v>1342.217687126686</v>
       </c>
       <c r="Q14">
-        <v>1603.262706364593</v>
-      </c>
-      <c r="R14">
-        <v>0.5871384667917714</v>
+        <v>0.5872868440546061</v>
+      </c>
+      <c r="S14">
+        <v>3.269118066624263</v>
       </c>
       <c r="T14">
-        <v>4.173552786773635</v>
+        <v>0.1839843118622584</v>
       </c>
       <c r="U14">
-        <v>0.2365749128957488</v>
-      </c>
-      <c r="V14">
-        <v>1.174276933583543</v>
-      </c>
-      <c r="W14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y14">
-        <v>0</v>
-      </c>
-      <c r="AA14">
-        <v>0</v>
-      </c>
-      <c r="AC14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29">
+        <v>1.174573688109212</v>
+      </c>
+      <c r="V14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31">
       <c r="A15" s="1">
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C15">
-        <v>102.7601441107363</v>
+        <v>102.7589818525441</v>
       </c>
       <c r="D15">
-        <v>1286.618415400742</v>
+        <v>1286.652604162683</v>
       </c>
       <c r="E15">
-        <v>871.80671407409</v>
+        <v>517.4548889714441</v>
       </c>
       <c r="F15">
-        <v>1286.618415400742</v>
+        <v>1286.652604162683</v>
       </c>
       <c r="G15">
-        <v>1264.642832882734</v>
+        <v>710.1689940508686</v>
       </c>
       <c r="H15">
-        <v>0.63164013976883</v>
+        <v>0.6015143213041211</v>
+      </c>
+      <c r="I15">
+        <v>2.445425623887139</v>
       </c>
       <c r="J15">
-        <v>4.244480619111496</v>
+        <v>0.2101252955257998</v>
       </c>
       <c r="K15">
-        <v>0.2264395631248579</v>
-      </c>
-      <c r="L15">
-        <v>1.26328027953766</v>
-      </c>
-      <c r="M15" t="b">
-        <v>0</v>
+        <v>1.203028642608242</v>
+      </c>
+      <c r="L15" t="s">
+        <v>54</v>
+      </c>
+      <c r="M15">
+        <v>1389.411586015227</v>
       </c>
       <c r="N15">
-        <v>1389.378559511478</v>
+        <v>790.8830139780437</v>
       </c>
       <c r="O15">
-        <v>1391.600352803699</v>
+        <v>1389.411586015227</v>
       </c>
       <c r="P15">
-        <v>1389.378559511478</v>
+        <v>1039.79482401377</v>
       </c>
       <c r="Q15">
-        <v>1897.647667779073</v>
-      </c>
-      <c r="R15">
-        <v>0.5829595461388041</v>
+        <v>0.5881585003647096</v>
+      </c>
+      <c r="S15">
+        <v>2.916201723514181</v>
       </c>
       <c r="T15">
-        <v>4.792169926980711</v>
+        <v>0.1504127514405575</v>
       </c>
       <c r="U15">
-        <v>0.2788306960017239</v>
-      </c>
-      <c r="V15">
-        <v>1.165919092277608</v>
-      </c>
-      <c r="W15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y15">
-        <v>0</v>
-      </c>
-      <c r="AA15">
-        <v>0</v>
-      </c>
-      <c r="AC15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29">
+        <v>1.176317000729419</v>
+      </c>
+      <c r="V15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31">
       <c r="A16" s="1">
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C16">
-        <v>102.7689946800383</v>
+        <v>102.747110005866</v>
       </c>
       <c r="D16">
-        <v>1286.609930628109</v>
+        <v>1286.664029876838</v>
       </c>
       <c r="E16">
-        <v>1028.700092516617</v>
+        <v>372.6684329478294</v>
       </c>
       <c r="F16">
-        <v>1286.609930628109</v>
+        <v>1286.664029876838</v>
       </c>
       <c r="G16">
-        <v>1497.902412124333</v>
+        <v>504.3195853907527</v>
       </c>
       <c r="H16">
-        <v>0.6235969032787958</v>
+        <v>0.6078465418265654</v>
+      </c>
+      <c r="I16">
+        <v>2.038599564687808</v>
       </c>
       <c r="J16">
-        <v>4.934057232054814</v>
+        <v>0.1367751189197077</v>
       </c>
       <c r="K16">
-        <v>0.2738082443100559</v>
-      </c>
-      <c r="L16">
-        <v>1.247193806557592</v>
-      </c>
-      <c r="M16" t="b">
-        <v>0</v>
+        <v>1.215693083653131</v>
+      </c>
+      <c r="L16" t="s">
+        <v>54</v>
+      </c>
+      <c r="M16">
+        <v>1389.411139882704</v>
       </c>
       <c r="N16">
-        <v>1389.378925308147</v>
+        <v>578.6432251127277</v>
       </c>
       <c r="O16">
-        <v>1592.470664877883</v>
+        <v>1389.411139882704</v>
       </c>
       <c r="P16">
-        <v>1389.378925308147</v>
+        <v>758.4157013093957</v>
       </c>
       <c r="Q16">
-        <v>2183.342791041403</v>
-      </c>
-      <c r="R16">
-        <v>0.5899985512147969</v>
+        <v>0.5824245995092923</v>
+      </c>
+      <c r="S16">
+        <v>2.575621309641206</v>
       </c>
       <c r="T16">
-        <v>5.295078847936717</v>
+        <v>0.1704555898185356</v>
       </c>
       <c r="U16">
-        <v>0.2601553050418235</v>
-      </c>
-      <c r="V16">
-        <v>1.179997102429594</v>
-      </c>
-      <c r="W16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y16">
-        <v>0</v>
-      </c>
-      <c r="AA16">
-        <v>0</v>
-      </c>
-      <c r="AC16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29">
+        <v>1.164849199018585</v>
+      </c>
+      <c r="V16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
       <c r="A17" s="1">
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C17">
-        <v>102.7713179534337</v>
+        <v>102.7261353755528</v>
       </c>
       <c r="D17">
-        <v>1286.598110640167</v>
+        <v>1286.691053068673</v>
       </c>
       <c r="E17">
-        <v>1088.48861644607</v>
+        <v>256.092865666894</v>
       </c>
       <c r="F17">
-        <v>1286.598110640167</v>
+        <v>1286.691053068673</v>
       </c>
       <c r="G17">
-        <v>1597.390378741866</v>
+        <v>338.0018795820367</v>
       </c>
       <c r="H17">
-        <v>0.6322683714511823</v>
+        <v>0.6028195872675581</v>
+      </c>
+      <c r="I17">
+        <v>2.031436428871599</v>
       </c>
       <c r="J17">
-        <v>5.381270182551839</v>
+        <v>0.0829942318726703</v>
       </c>
       <c r="K17">
-        <v>0.2567906776320802</v>
-      </c>
-      <c r="L17">
-        <v>1.264536742902365</v>
-      </c>
-      <c r="M17" t="b">
-        <v>0</v>
+        <v>1.205639174535116</v>
+      </c>
+      <c r="L17" t="s">
+        <v>54</v>
+      </c>
+      <c r="M17">
+        <v>1389.417188444226</v>
       </c>
       <c r="N17">
-        <v>1389.369428593601</v>
+        <v>402.9534274714309</v>
       </c>
       <c r="O17">
-        <v>1734.307218705881</v>
+        <v>1389.417188444226</v>
       </c>
       <c r="P17">
-        <v>1389.369428593601</v>
+        <v>518.582067612401</v>
       </c>
       <c r="Q17">
-        <v>2395.586419393353</v>
-      </c>
-      <c r="R17">
-        <v>0.5948347589184013</v>
+        <v>0.580364844220273</v>
+      </c>
+      <c r="S17">
+        <v>2.162756739155785</v>
       </c>
       <c r="T17">
-        <v>5.999223017553364</v>
+        <v>0.1254909906157466</v>
       </c>
       <c r="U17">
-        <v>0.2581253921033489</v>
-      </c>
-      <c r="V17">
-        <v>1.189669517836803</v>
-      </c>
-      <c r="W17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y17">
-        <v>0</v>
-      </c>
-      <c r="AA17">
-        <v>0</v>
-      </c>
-      <c r="AC17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:29">
+        <v>1.160729688440546</v>
+      </c>
+      <c r="V17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
       <c r="A18" s="1">
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C18">
-        <v>102.7813727611133</v>
+        <v>102.7400391644062</v>
       </c>
       <c r="D18">
-        <v>1286.584376538353</v>
+        <v>1286.697138574245</v>
       </c>
       <c r="E18">
-        <v>1309.174582741652</v>
+        <v>178.3768392551922</v>
       </c>
       <c r="F18">
-        <v>1286.584376538353</v>
+        <v>1286.697138574245</v>
       </c>
       <c r="G18">
-        <v>1940.972623185894</v>
+        <v>234.5649968427893</v>
       </c>
       <c r="H18">
-        <v>0.638043626670511</v>
+        <v>0.6133362879299014</v>
+      </c>
+      <c r="I18">
+        <v>2.939640388897111</v>
       </c>
       <c r="J18">
-        <v>5.875822589147999</v>
+        <v>7.086098874342639E-09</v>
       </c>
       <c r="K18">
-        <v>0.2599715984740367</v>
-      </c>
-      <c r="L18">
-        <v>1.276087253341022</v>
-      </c>
-      <c r="M18" t="b">
-        <v>0</v>
+        <v>1.226672575859803</v>
+      </c>
+      <c r="L18" t="s">
+        <v>54</v>
+      </c>
+      <c r="M18">
+        <v>1389.437177738651</v>
       </c>
       <c r="N18">
-        <v>1389.365749299466</v>
+        <v>290.448672408902</v>
       </c>
       <c r="O18">
-        <v>2069.372752298598</v>
+        <v>1389.437177738651</v>
       </c>
       <c r="P18">
-        <v>1389.365749299466</v>
+        <v>381.4557581912405</v>
       </c>
       <c r="Q18">
-        <v>2862.475772656247</v>
-      </c>
-      <c r="R18">
-        <v>0.5890772450839111</v>
+        <v>0.5809587931171338</v>
+      </c>
+      <c r="S18">
+        <v>2.588402263170968</v>
       </c>
       <c r="T18">
-        <v>6.913080157831809</v>
+        <v>0.1770543359016655</v>
       </c>
       <c r="U18">
-        <v>0.2896554969111148</v>
-      </c>
-      <c r="V18">
-        <v>1.178154490167822</v>
-      </c>
-      <c r="W18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y18">
-        <v>0</v>
-      </c>
-      <c r="AA18">
-        <v>0</v>
-      </c>
-      <c r="AC18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29">
+        <v>1.161917586234268</v>
+      </c>
+      <c r="V18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
       <c r="A19" s="1">
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C19">
-        <v>102.7772214569193</v>
+        <v>102.7357397057604</v>
       </c>
       <c r="D19">
-        <v>1286.565669234198</v>
+        <v>1286.688110181762</v>
       </c>
       <c r="E19">
-        <v>1583.67799384661</v>
+        <v>251.7701757252595</v>
       </c>
       <c r="F19">
-        <v>1286.565669234198</v>
+        <v>1286.688110181762</v>
       </c>
       <c r="G19">
-        <v>2352.986935262967</v>
+        <v>334.6274967918648</v>
       </c>
       <c r="H19">
-        <v>0.6305941844970655</v>
+        <v>0.5850910206415378</v>
+      </c>
+      <c r="I19">
+        <v>2.929846440127012</v>
       </c>
       <c r="J19">
-        <v>7.188481207157373</v>
+        <v>0.2032184038297861</v>
       </c>
       <c r="K19">
-        <v>0.2991715060035428</v>
-      </c>
-      <c r="L19">
-        <v>1.261188368994131</v>
-      </c>
-      <c r="M19" t="b">
-        <v>0</v>
+        <v>1.170182041283076</v>
+      </c>
+      <c r="L19" t="s">
+        <v>54</v>
+      </c>
+      <c r="M19">
+        <v>1389.423849887522</v>
       </c>
       <c r="N19">
-        <v>1389.342890691117</v>
+        <v>386.8528475165399</v>
       </c>
       <c r="O19">
-        <v>2497.523823025787</v>
+        <v>1389.423849887522</v>
       </c>
       <c r="P19">
-        <v>1389.342890691117</v>
+        <v>496.5996715278083</v>
       </c>
       <c r="Q19">
-        <v>3484.102281429003</v>
-      </c>
-      <c r="R19">
-        <v>0.5862105304408117</v>
+        <v>0.5841454993548298</v>
+      </c>
+      <c r="S19">
+        <v>2.86693753057799</v>
       </c>
       <c r="T19">
-        <v>9.080883553328558</v>
+        <v>0.0996347284212824</v>
       </c>
       <c r="U19">
-        <v>0.3269484350780094</v>
-      </c>
-      <c r="V19">
-        <v>1.172421060881623</v>
-      </c>
-      <c r="W19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y19">
-        <v>0</v>
-      </c>
-      <c r="AA19">
-        <v>0</v>
-      </c>
-      <c r="AC19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29">
+        <v>1.16829099870966</v>
+      </c>
+      <c r="V19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
       <c r="A20" s="1">
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C20">
-        <v>102.8041309898729</v>
+        <v>102.760837760944</v>
       </c>
       <c r="D20">
-        <v>1286.536055041493</v>
+        <v>1286.675291106363</v>
       </c>
       <c r="E20">
-        <v>1865.239250403518</v>
+        <v>220.4348053195562</v>
       </c>
       <c r="F20">
-        <v>1286.536055041493</v>
+        <v>1286.675291106363</v>
       </c>
       <c r="G20">
-        <v>2819.173319323745</v>
+        <v>279.9695573891059</v>
       </c>
       <c r="H20">
-        <v>0.6438154607130688</v>
+        <v>0.6008281923843636</v>
+      </c>
+      <c r="I20">
+        <v>6.170170865868368</v>
       </c>
       <c r="J20">
-        <v>9.081604809950868</v>
+        <v>4.304212164463195E-08</v>
       </c>
       <c r="K20">
-        <v>0.2889752846702122</v>
-      </c>
-      <c r="L20">
-        <v>1.287630921426138</v>
-      </c>
-      <c r="M20" t="b">
-        <v>0</v>
+        <v>1.201656384768727</v>
+      </c>
+      <c r="L20" t="s">
+        <v>54</v>
+      </c>
+      <c r="M20">
+        <v>1389.436128867307</v>
       </c>
       <c r="N20">
-        <v>1389.340186031366</v>
+        <v>347.4070881324222</v>
       </c>
       <c r="O20">
-        <v>2913.788340396113</v>
+        <v>1389.436128867307</v>
       </c>
       <c r="P20">
-        <v>1389.340186031366</v>
+        <v>438.5207857359011</v>
       </c>
       <c r="Q20">
-        <v>4102.533257405446</v>
-      </c>
-      <c r="R20">
-        <v>0.5951863589383495</v>
+        <v>0.584479324821363</v>
+      </c>
+      <c r="S20">
+        <v>3.057938913041299</v>
       </c>
       <c r="T20">
-        <v>9.289815586411093</v>
+        <v>0.0383612605632786</v>
       </c>
       <c r="U20">
-        <v>0.3103700001781398</v>
-      </c>
-      <c r="V20">
-        <v>1.190372717876699</v>
-      </c>
-      <c r="W20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y20">
-        <v>0</v>
-      </c>
-      <c r="AA20">
-        <v>0</v>
-      </c>
-      <c r="AC20">
-        <v>0</v>
+        <v>1.168958649642726</v>
+      </c>
+      <c r="V20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
+      <c r="A21" s="1">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21">
+        <v>102.7590652183035</v>
+      </c>
+      <c r="D21">
+        <v>1286.684088657664</v>
+      </c>
+      <c r="E21">
+        <v>182.2221016339439</v>
+      </c>
+      <c r="F21">
+        <v>1286.684088657664</v>
+      </c>
+      <c r="G21">
+        <v>242.1120767467778</v>
+      </c>
+      <c r="H21">
+        <v>0.6181439583223443</v>
+      </c>
+      <c r="I21">
+        <v>2.913295857679111</v>
+      </c>
+      <c r="J21">
+        <v>9.881847895520934E-09</v>
+      </c>
+      <c r="K21">
+        <v>1.236287916644689</v>
+      </c>
+      <c r="L21" t="s">
+        <v>54</v>
+      </c>
+      <c r="M21">
+        <v>1389.443153875967</v>
+      </c>
+      <c r="N21">
+        <v>302.7172369569967</v>
+      </c>
+      <c r="O21">
+        <v>1389.443153875967</v>
+      </c>
+      <c r="P21">
+        <v>377.4159610173037</v>
+      </c>
+      <c r="Q21">
+        <v>0.5828683696037986</v>
+      </c>
+      <c r="S21">
+        <v>3.11027321936616</v>
+      </c>
+      <c r="T21">
+        <v>0.01265918958875883</v>
+      </c>
+      <c r="U21">
+        <v>1.165736739207597</v>
+      </c>
+      <c r="V21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
+      <c r="A22" s="1">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22">
+        <v>102.7274115530784</v>
+      </c>
+      <c r="D22">
+        <v>1286.708006810315</v>
+      </c>
+      <c r="E22">
+        <v>160.4442529909455</v>
+      </c>
+      <c r="F22">
+        <v>1286.708006810315</v>
+      </c>
+      <c r="G22">
+        <v>221.6407757223722</v>
+      </c>
+      <c r="H22">
+        <v>0.6300706975459776</v>
+      </c>
+      <c r="I22">
+        <v>2.636954478446572</v>
+      </c>
+      <c r="J22">
+        <v>0.1039963264741266</v>
+      </c>
+      <c r="K22">
+        <v>1.260141395091955</v>
+      </c>
+      <c r="L22" t="s">
+        <v>54</v>
+      </c>
+      <c r="M22">
+        <v>1389.435418363393</v>
+      </c>
+      <c r="N22">
+        <v>263.9435101161188</v>
+      </c>
+      <c r="O22">
+        <v>1389.435418363393</v>
+      </c>
+      <c r="P22">
+        <v>322.877700248831</v>
+      </c>
+      <c r="Q22">
+        <v>0.5733856826747771</v>
+      </c>
+      <c r="S22">
+        <v>2.926256665146277</v>
+      </c>
+      <c r="T22">
+        <v>8.47439229900715E-10</v>
+      </c>
+      <c r="U22">
+        <v>1.146771365349554</v>
+      </c>
+      <c r="V22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
+      <c r="A23" s="1">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23">
+        <v>102.7294585455768</v>
+      </c>
+      <c r="D23">
+        <v>1286.714214813913</v>
+      </c>
+      <c r="E23">
+        <v>131.4896047604381</v>
+      </c>
+      <c r="F23">
+        <v>1286.714214813913</v>
+      </c>
+      <c r="G23">
+        <v>173.8115290126838</v>
+      </c>
+      <c r="H23">
+        <v>0.6201737854510208</v>
+      </c>
+      <c r="I23">
+        <v>2.81585469559739</v>
+      </c>
+      <c r="J23">
+        <v>1.282423729487281E-06</v>
+      </c>
+      <c r="K23">
+        <v>1.240347570902042</v>
+      </c>
+      <c r="L23" t="s">
+        <v>54</v>
+      </c>
+      <c r="M23">
+        <v>1389.44367335949</v>
+      </c>
+      <c r="N23">
+        <v>234.9466701595559</v>
+      </c>
+      <c r="O23">
+        <v>1389.44367335949</v>
+      </c>
+      <c r="P23">
+        <v>291.5375210180215</v>
+      </c>
+      <c r="Q23">
+        <v>0.5151289151683387</v>
+      </c>
+      <c r="S23">
+        <v>2.823590178105126</v>
+      </c>
+      <c r="T23">
+        <v>0.3522014668286774</v>
+      </c>
+      <c r="U23">
+        <v>1.030257830336677</v>
+      </c>
+      <c r="V23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
+      <c r="A24" s="1">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24">
+        <v>102.7583405048781</v>
+      </c>
+      <c r="D24">
+        <v>1286.688454052106</v>
+      </c>
+      <c r="E24">
+        <v>128.1359562208719</v>
+      </c>
+      <c r="F24">
+        <v>1286.688454052106</v>
+      </c>
+      <c r="G24">
+        <v>165.6744209583415</v>
+      </c>
+      <c r="H24">
+        <v>0.6033878851688016</v>
+      </c>
+      <c r="I24">
+        <v>2.125813185643882</v>
+      </c>
+      <c r="J24">
+        <v>0.01759631722666255</v>
+      </c>
+      <c r="K24">
+        <v>1.206775770337603</v>
+      </c>
+      <c r="L24" t="s">
+        <v>54</v>
+      </c>
+      <c r="M24">
+        <v>1389.446794556984</v>
+      </c>
+      <c r="N24">
+        <v>210.545277017997</v>
+      </c>
+      <c r="O24">
+        <v>1389.446794556984</v>
+      </c>
+      <c r="P24">
+        <v>254.5431175238768</v>
+      </c>
+      <c r="Q24">
+        <v>0.5712310192364713</v>
+      </c>
+      <c r="S24">
+        <v>5.058376820206903</v>
+      </c>
+      <c r="T24">
+        <v>4.282280933726179E-05</v>
+      </c>
+      <c r="U24">
+        <v>1.142462038472943</v>
+      </c>
+      <c r="V24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
+      <c r="A25" s="1">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25">
+        <v>102.7275376743528</v>
+      </c>
+      <c r="D25">
+        <v>1286.71845160249</v>
+      </c>
+      <c r="E25">
+        <v>119.5631493556455</v>
+      </c>
+      <c r="F25">
+        <v>1286.71845160249</v>
+      </c>
+      <c r="G25">
+        <v>155.8493727634209</v>
+      </c>
+      <c r="H25">
+        <v>0.6104023623673037</v>
+      </c>
+      <c r="I25">
+        <v>1.999744624216307</v>
+      </c>
+      <c r="J25">
+        <v>9.926504063173525E-12</v>
+      </c>
+      <c r="K25">
+        <v>1.220804724734607</v>
+      </c>
+      <c r="L25" t="s">
+        <v>54</v>
+      </c>
+      <c r="M25">
+        <v>1389.445989276843</v>
+      </c>
+      <c r="N25">
+        <v>194.0037426924437</v>
+      </c>
+      <c r="O25">
+        <v>1389.445989276843</v>
+      </c>
+      <c r="P25">
+        <v>238.4647392408212</v>
+      </c>
+      <c r="Q25">
+        <v>0.5688898866785065</v>
+      </c>
+      <c r="S25">
+        <v>2.090241659783894</v>
+      </c>
+      <c r="T25">
+        <v>0.03802131325530972</v>
+      </c>
+      <c r="U25">
+        <v>1.137779773357013</v>
+      </c>
+      <c r="V25" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Examples/Diad_Fitting_Nov22nd2022/Weak_Diads.xlsx
+++ b/docs/Examples/Diad_Fitting_Nov22nd2022/Weak_Diads.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="45">
   <si>
     <t>filename</t>
   </si>
@@ -106,73 +106,43 @@
     <t>C13_Sigma</t>
   </si>
   <si>
-    <t>POC35</t>
-  </si>
-  <si>
-    <t>POC36</t>
-  </si>
-  <si>
-    <t>POC37</t>
-  </si>
-  <si>
-    <t>POC38</t>
-  </si>
-  <si>
-    <t>POC39</t>
-  </si>
-  <si>
-    <t>POC40</t>
-  </si>
-  <si>
-    <t>POC41</t>
-  </si>
-  <si>
-    <t>POC42</t>
-  </si>
-  <si>
-    <t>POC43</t>
-  </si>
-  <si>
-    <t>POC44</t>
-  </si>
-  <si>
-    <t>POC45</t>
+    <t>Cap19-07X1</t>
+  </si>
+  <si>
+    <t>FG04_31_MI</t>
   </si>
   <si>
     <t>POC46</t>
   </si>
   <si>
-    <t>POC47</t>
-  </si>
-  <si>
-    <t>POC48</t>
-  </si>
-  <si>
-    <t>POC49</t>
-  </si>
-  <si>
-    <t>POC50</t>
-  </si>
-  <si>
-    <t>POC51</t>
-  </si>
-  <si>
-    <t>POC52</t>
-  </si>
-  <si>
-    <t>POC53</t>
+    <t>POC50 (Sub BG)</t>
+  </si>
+  <si>
+    <t>POC51 (Sub BG)</t>
+  </si>
+  <si>
+    <t>POC52 (Sub BG)</t>
+  </si>
+  <si>
+    <t>POC53 (Sub BG)</t>
+  </si>
+  <si>
+    <t>POC54 (Sub BG)</t>
   </si>
   <si>
     <t>POC54</t>
   </si>
   <si>
-    <t>POC55</t>
-  </si>
-  <si>
-    <t>POC56</t>
-  </si>
-  <si>
-    <t>POC57-0.04</t>
+    <t>POC55 (Sub BG)</t>
+  </si>
+  <si>
+    <t>POC56 (Sub BG)</t>
+  </si>
+  <si>
+    <t>POC57-0.04 (Sub BG)</t>
+  </si>
+  <si>
+    <t>POC58 (Sub BG)</t>
   </si>
   <si>
     <t>POC58</t>
@@ -536,7 +506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE25"/>
+  <dimension ref="A1:AE15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -642,61 +612,61 @@
         <v>30</v>
       </c>
       <c r="C2">
-        <v>102.8852826851687</v>
+        <v>102.7355528387473</v>
       </c>
       <c r="D2">
-        <v>1286.308123931749</v>
+        <v>1286.700139046325</v>
       </c>
       <c r="E2">
-        <v>3727.037089592493</v>
+        <v>45.64277569653503</v>
       </c>
       <c r="F2">
-        <v>1286.308123931749</v>
+        <v>1286.700139046325</v>
       </c>
       <c r="G2">
-        <v>6232.818430741061</v>
+        <v>69.63406721881563</v>
       </c>
       <c r="H2">
-        <v>0.6899593541510802</v>
+        <v>0.7153550436589305</v>
       </c>
       <c r="I2">
-        <v>11.1024412006071</v>
+        <v>1.685106353135197</v>
       </c>
       <c r="J2">
-        <v>0.3818553710834165</v>
+        <v>4.917294349482404E-11</v>
       </c>
       <c r="K2">
-        <v>1.37991870830216</v>
+        <v>1.430710087317861</v>
       </c>
       <c r="L2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="M2">
-        <v>1389.193406616918</v>
+        <v>1389.435691885072</v>
       </c>
       <c r="N2">
-        <v>5894.306672821345</v>
+        <v>84.35536979473895</v>
       </c>
       <c r="O2">
-        <v>1389.193406616918</v>
+        <v>1389.435691885072</v>
       </c>
       <c r="P2">
-        <v>9008.843621551674</v>
+        <v>111.8623087078768</v>
       </c>
       <c r="Q2">
-        <v>0.6348972485236971</v>
+        <v>0.565015676812242</v>
       </c>
       <c r="S2">
-        <v>15.74598075394724</v>
+        <v>1.582588264727442</v>
       </c>
       <c r="T2">
-        <v>0.3625548702243288</v>
+        <v>0.2751215587282394</v>
       </c>
       <c r="U2">
-        <v>1.269794497047394</v>
+        <v>1.130031353624484</v>
       </c>
       <c r="V2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:31">
@@ -707,61 +677,61 @@
         <v>31</v>
       </c>
       <c r="C3">
-        <v>102.8588943165466</v>
+        <v>103.2067815384273</v>
       </c>
       <c r="D3">
-        <v>1286.380164422178</v>
+        <v>1285.207347638077</v>
       </c>
       <c r="E3">
-        <v>3190.855505345823</v>
+        <v>40.96563779249253</v>
       </c>
       <c r="F3">
-        <v>1286.380164422178</v>
+        <v>1285.207347638077</v>
       </c>
       <c r="G3">
-        <v>5128.240825778006</v>
+        <v>113.3240124842758</v>
       </c>
       <c r="H3">
-        <v>0.6689626053283104</v>
+        <v>0.9398538403250334</v>
       </c>
       <c r="I3">
-        <v>10.22276256114136</v>
+        <v>1.393696588414568</v>
       </c>
       <c r="J3">
-        <v>0.3571894977771339</v>
+        <v>0.8646297045106316</v>
       </c>
       <c r="K3">
-        <v>1.337925210656621</v>
+        <v>1.879707680650067</v>
       </c>
       <c r="L3" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>1389.239058738725</v>
+        <v>1388.414129176505</v>
       </c>
       <c r="N3">
-        <v>4926.307018627889</v>
+        <v>70.14296243134308</v>
       </c>
       <c r="O3">
-        <v>1389.239058738725</v>
+        <v>1388.414129176505</v>
       </c>
       <c r="P3">
-        <v>7357.066110412962</v>
+        <v>163.1214547410223</v>
       </c>
       <c r="Q3">
-        <v>0.6220107773546536</v>
+        <v>0.9312459289078252</v>
       </c>
       <c r="S3">
-        <v>13.9854354056946</v>
+        <v>1.479040830800992</v>
       </c>
       <c r="T3">
-        <v>0.3545575741949497</v>
+        <v>0.4534769741222406</v>
       </c>
       <c r="U3">
-        <v>1.244021554709307</v>
+        <v>1.86249185781565</v>
       </c>
       <c r="V3" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:31">
@@ -772,61 +742,70 @@
         <v>32</v>
       </c>
       <c r="C4">
-        <v>102.8337134593769</v>
+        <v>102.7519483973949</v>
       </c>
       <c r="D4">
-        <v>1286.448246385185</v>
+        <v>1286.640256927248</v>
       </c>
       <c r="E4">
-        <v>2444.504770952816</v>
+        <v>751.1716596445422</v>
       </c>
       <c r="F4">
-        <v>1286.448246385185</v>
+        <v>1286.640306929748</v>
       </c>
       <c r="G4">
-        <v>3841.797300099158</v>
+        <v>1063.82523054222</v>
       </c>
       <c r="H4">
-        <v>0.6591320000296416</v>
+        <v>0.6156385635178592</v>
       </c>
       <c r="I4">
-        <v>7.732273021123317</v>
+        <v>3.068712292309806</v>
       </c>
       <c r="J4">
-        <v>0.3353878738396449</v>
+        <v>0.2313002711888554</v>
       </c>
       <c r="K4">
-        <v>1.318264000059283</v>
+        <v>1.231277127035718</v>
       </c>
       <c r="L4" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="M4">
-        <v>1389.281959844562</v>
+        <v>1389.392255327143</v>
       </c>
       <c r="N4">
-        <v>3849.513562993182</v>
+        <v>1181.133885237375</v>
       </c>
       <c r="O4">
-        <v>1389.281959844562</v>
+        <v>1389.392255327143</v>
       </c>
       <c r="P4">
-        <v>5588.914475272064</v>
+        <v>1584.768041869818</v>
       </c>
       <c r="Q4">
-        <v>0.6111128173659559</v>
+        <v>0.5888388980464061</v>
       </c>
       <c r="S4">
-        <v>10.74990345825909</v>
+        <v>4.710172805017255</v>
       </c>
       <c r="T4">
-        <v>0.3258584560973545</v>
+        <v>0.2053619123866054</v>
       </c>
       <c r="U4">
-        <v>1.222225634731912</v>
+        <v>1.177677796092812</v>
       </c>
       <c r="V4" t="s">
-        <v>54</v>
+        <v>44</v>
+      </c>
+      <c r="W4">
+        <v>1266.296024994799</v>
+      </c>
+      <c r="X4">
+        <v>95.67188209505652</v>
+      </c>
+      <c r="Y4">
+        <v>0.6556336653585895</v>
       </c>
     </row>
     <row r="5" spans="1:31">
@@ -837,61 +816,61 @@
         <v>33</v>
       </c>
       <c r="C5">
-        <v>102.8110678735036</v>
+        <v>102.7258954309743</v>
       </c>
       <c r="D5">
-        <v>1286.490986147648</v>
+        <v>1286.691111042955</v>
       </c>
       <c r="E5">
-        <v>2228.305178502642</v>
+        <v>259.4843217046434</v>
       </c>
       <c r="F5">
-        <v>1286.490986147648</v>
+        <v>1286.691111042955</v>
       </c>
       <c r="G5">
-        <v>3445.381890948252</v>
+        <v>351.6671732206234</v>
       </c>
       <c r="H5">
-        <v>0.6521759237079335</v>
+        <v>0.5973626954947653</v>
       </c>
       <c r="I5">
-        <v>7.012395841518764</v>
+        <v>2.29798948362695</v>
       </c>
       <c r="J5">
-        <v>0.3198376410962213</v>
+        <v>0.1914278813730596</v>
       </c>
       <c r="K5">
-        <v>1.304351847415867</v>
+        <v>1.194725390989531</v>
       </c>
       <c r="L5" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="M5">
-        <v>1389.302054021151</v>
+        <v>1389.41700647393</v>
       </c>
       <c r="N5">
-        <v>3449.023462145636</v>
+        <v>403.8520617289578</v>
       </c>
       <c r="O5">
-        <v>1389.302054021151</v>
+        <v>1389.41700647393</v>
       </c>
       <c r="P5">
-        <v>4955.665356566187</v>
+        <v>522.7437400078402</v>
       </c>
       <c r="Q5">
-        <v>0.6109092975542486</v>
+        <v>0.5793486444519659</v>
       </c>
       <c r="S5">
-        <v>10.21481820320279</v>
+        <v>2.411133083540473</v>
       </c>
       <c r="T5">
-        <v>0.2969113367668841</v>
+        <v>0.1472285523441925</v>
       </c>
       <c r="U5">
-        <v>1.221818595108497</v>
+        <v>1.158697288903932</v>
       </c>
       <c r="V5" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:31">
@@ -902,61 +881,61 @@
         <v>34</v>
       </c>
       <c r="C6">
-        <v>102.8074970899663</v>
+        <v>102.7406994187684</v>
       </c>
       <c r="D6">
-        <v>1286.514190225702</v>
+        <v>1286.696296217016</v>
       </c>
       <c r="E6">
-        <v>2007.683844480237</v>
+        <v>185.218371656568</v>
       </c>
       <c r="F6">
-        <v>1286.514190225702</v>
+        <v>1286.696296217016</v>
       </c>
       <c r="G6">
-        <v>3101.911862948164</v>
+        <v>259.4361676628798</v>
       </c>
       <c r="H6">
-        <v>0.6527628513770665</v>
+        <v>0.6007376976812586</v>
       </c>
       <c r="I6">
-        <v>6.835193750003087</v>
+        <v>2.509024085139773</v>
       </c>
       <c r="J6">
-        <v>0.3151898157264015</v>
+        <v>0.2681582832591315</v>
       </c>
       <c r="K6">
-        <v>1.305525702754133</v>
+        <v>1.201475395362517</v>
       </c>
       <c r="L6" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="M6">
-        <v>1389.321687315669</v>
+        <v>1389.436995635784</v>
       </c>
       <c r="N6">
-        <v>3152.668105694176</v>
+        <v>291.58930335889</v>
       </c>
       <c r="O6">
-        <v>1389.321687315669</v>
+        <v>1389.436995635784</v>
       </c>
       <c r="P6">
-        <v>4481.934702771769</v>
+        <v>384.8822639928185</v>
       </c>
       <c r="Q6">
-        <v>0.6023250889566958</v>
+        <v>0.5797299248985225</v>
       </c>
       <c r="S6">
-        <v>9.11820431459876</v>
+        <v>2.577509714141717</v>
       </c>
       <c r="T6">
-        <v>0.307192417639629</v>
+        <v>0.2013589657192582</v>
       </c>
       <c r="U6">
-        <v>1.204650177913392</v>
+        <v>1.159459849797045</v>
       </c>
       <c r="V6" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:31">
@@ -967,61 +946,61 @@
         <v>35</v>
       </c>
       <c r="C7">
-        <v>102.8040387274882</v>
+        <v>102.7366277705687</v>
       </c>
       <c r="D7">
-        <v>1286.536014129802</v>
+        <v>1286.687120809308</v>
       </c>
       <c r="E7">
-        <v>1867.760972757369</v>
+        <v>254.3477775824337</v>
       </c>
       <c r="F7">
-        <v>1286.536014129802</v>
+        <v>1286.687120809308</v>
       </c>
       <c r="G7">
-        <v>2810.548561586831</v>
+        <v>347.311572470515</v>
       </c>
       <c r="H7">
-        <v>0.6440627948779768</v>
+        <v>0.5790316144537906</v>
       </c>
       <c r="I7">
-        <v>6.735633149670592</v>
+        <v>3.115346713800447</v>
       </c>
       <c r="J7">
-        <v>0.2813137241883331</v>
+        <v>0.3021065730387469</v>
       </c>
       <c r="K7">
-        <v>1.288125589755954</v>
+        <v>1.158063228907581</v>
       </c>
       <c r="L7" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="M7">
-        <v>1389.34005285729</v>
+        <v>1389.423748579876</v>
       </c>
       <c r="N7">
-        <v>2908.135006714874</v>
+        <v>387.2692618086478</v>
       </c>
       <c r="O7">
-        <v>1389.34005285729</v>
+        <v>1389.423748579876</v>
       </c>
       <c r="P7">
-        <v>4061.283591887488</v>
+        <v>499.6386038067232</v>
       </c>
       <c r="Q7">
-        <v>0.5966377915107628</v>
+        <v>0.583378815881791</v>
       </c>
       <c r="S7">
-        <v>7.801613213556614</v>
+        <v>2.997285244463144</v>
       </c>
       <c r="T7">
-        <v>0.2840793323226457</v>
+        <v>0.1164820711046523</v>
       </c>
       <c r="U7">
-        <v>1.193275583021526</v>
+        <v>1.166757631763582</v>
       </c>
       <c r="V7" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:31">
@@ -1032,61 +1011,61 @@
         <v>36</v>
       </c>
       <c r="C8">
-        <v>102.7771988590448</v>
+        <v>102.7603097109386</v>
       </c>
       <c r="D8">
-        <v>1286.565686387163</v>
+        <v>1286.675187894008</v>
       </c>
       <c r="E8">
-        <v>1586.937231279491</v>
+        <v>223.7093662747214</v>
       </c>
       <c r="F8">
-        <v>1286.565686387163</v>
+        <v>1286.675187894008</v>
       </c>
       <c r="G8">
-        <v>2354.903020286851</v>
+        <v>293.2983437751398</v>
       </c>
       <c r="H8">
-        <v>0.6306015471074872</v>
+        <v>0.6014461085701798</v>
       </c>
       <c r="I8">
-        <v>5.219751806727926</v>
+        <v>3.205211550438374</v>
       </c>
       <c r="J8">
-        <v>0.3007944113962994</v>
+        <v>0.09726002304490777</v>
       </c>
       <c r="K8">
-        <v>1.261203094214974</v>
+        <v>1.20289221714036</v>
       </c>
       <c r="L8" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="M8">
-        <v>1389.342885246208</v>
+        <v>1389.435497604946</v>
       </c>
       <c r="N8">
-        <v>2491.707501484841</v>
+        <v>352.3202727574256</v>
       </c>
       <c r="O8">
-        <v>1389.342885246208</v>
+        <v>1389.435497604946</v>
       </c>
       <c r="P8">
-        <v>3447.793397358598</v>
+        <v>456.9854203612545</v>
       </c>
       <c r="Q8">
-        <v>0.5878557513043577</v>
+        <v>0.5796976732342081</v>
       </c>
       <c r="S8">
-        <v>7.587696023407806</v>
+        <v>3.161223665281187</v>
       </c>
       <c r="T8">
-        <v>0.2994982703231469</v>
+        <v>0.1510905254801318</v>
       </c>
       <c r="U8">
-        <v>1.175711502608715</v>
+        <v>1.159395346468416</v>
       </c>
       <c r="V8" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:31">
@@ -1097,61 +1076,61 @@
         <v>37</v>
       </c>
       <c r="C9">
-        <v>102.7815382973968</v>
+        <v>102.7587502319202</v>
       </c>
       <c r="D9">
-        <v>1286.584262950371</v>
+        <v>1286.68379448141</v>
       </c>
       <c r="E9">
-        <v>1307.347071946816</v>
+        <v>190.116561439198</v>
       </c>
       <c r="F9">
-        <v>1286.584262950371</v>
+        <v>1286.68379448141</v>
       </c>
       <c r="G9">
-        <v>1925.645146468035</v>
+        <v>270.5241047919375</v>
       </c>
       <c r="H9">
-        <v>0.6387697084135934</v>
+        <v>0.6081692023420906</v>
       </c>
       <c r="I9">
-        <v>4.59544429484717</v>
+        <v>2.532878139957663</v>
       </c>
       <c r="J9">
-        <v>0.2400596003862082</v>
+        <v>0.2806522382733285</v>
       </c>
       <c r="K9">
-        <v>1.277539416827187</v>
+        <v>1.216338404684181</v>
       </c>
       <c r="L9" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="M9">
-        <v>1389.365801247767</v>
+        <v>1389.44254471333</v>
       </c>
       <c r="N9">
-        <v>2061.200370292417</v>
+        <v>306.1421982753419</v>
       </c>
       <c r="O9">
-        <v>1389.365801247767</v>
+        <v>1389.44254471333</v>
       </c>
       <c r="P9">
-        <v>2821.812805848746</v>
+        <v>391.547813151265</v>
       </c>
       <c r="Q9">
-        <v>0.5912601342934916</v>
+        <v>0.5789748053333181</v>
       </c>
       <c r="S9">
-        <v>6.181867613488521</v>
+        <v>3.305149667770905</v>
       </c>
       <c r="T9">
-        <v>0.2517437644879544</v>
+        <v>0.113072289943761</v>
       </c>
       <c r="U9">
-        <v>1.182520268586983</v>
+        <v>1.157949610666636</v>
       </c>
       <c r="V9" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:31">
@@ -1162,61 +1141,70 @@
         <v>38</v>
       </c>
       <c r="C10">
-        <v>102.7714197141695</v>
+        <v>102.7593749865075</v>
       </c>
       <c r="D10">
-        <v>1286.598050096833</v>
+        <v>1286.683774602142</v>
       </c>
       <c r="E10">
-        <v>1087.840056147627</v>
+        <v>183.4342371441711</v>
       </c>
       <c r="F10">
-        <v>1286.598050096833</v>
+        <v>1286.683824604642</v>
       </c>
       <c r="G10">
-        <v>1589.584191831058</v>
+        <v>239.8638224238165</v>
       </c>
       <c r="H10">
-        <v>0.6327965147283574</v>
+        <v>0.6142174413984022</v>
       </c>
       <c r="I10">
-        <v>4.106269078034286</v>
+        <v>3.215684560932652</v>
       </c>
       <c r="J10">
-        <v>0.2442524700942373</v>
+        <v>5.551115123125783E-17</v>
       </c>
       <c r="K10">
-        <v>1.265593029456715</v>
+        <v>1.228434882796804</v>
       </c>
       <c r="L10" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="M10">
-        <v>1389.369469811003</v>
+        <v>1389.443199591149</v>
       </c>
       <c r="N10">
-        <v>1729.682582014369</v>
+        <v>302.0058467088046</v>
       </c>
       <c r="O10">
-        <v>1389.369469811003</v>
+        <v>1389.443199591149</v>
       </c>
       <c r="P10">
-        <v>2368.700809873425</v>
+        <v>375.3383428274568</v>
       </c>
       <c r="Q10">
-        <v>0.5965079361790312</v>
+        <v>0.5829445223313513</v>
       </c>
       <c r="S10">
-        <v>5.318633453721</v>
+        <v>3.463253920250559</v>
       </c>
       <c r="T10">
-        <v>0.2279862099418969</v>
+        <v>1.865175958126741E-09</v>
       </c>
       <c r="U10">
-        <v>1.193015872358062</v>
+        <v>1.165889044662703</v>
       </c>
       <c r="V10" t="s">
-        <v>54</v>
+        <v>44</v>
+      </c>
+      <c r="W10">
+        <v>1266.377029306745</v>
+      </c>
+      <c r="X10">
+        <v>18.42377943879228</v>
+      </c>
+      <c r="Y10">
+        <v>0.5582866595512076</v>
       </c>
     </row>
     <row r="11" spans="1:31">
@@ -1227,61 +1215,61 @@
         <v>39</v>
       </c>
       <c r="C11">
-        <v>102.7691343055676</v>
+        <v>102.7277323425772</v>
       </c>
       <c r="D11">
-        <v>1286.609839298173</v>
+        <v>1286.7075319091</v>
       </c>
       <c r="E11">
-        <v>1027.777608194669</v>
+        <v>159.8265968244919</v>
       </c>
       <c r="F11">
-        <v>1286.609839298173</v>
+        <v>1286.7075319091</v>
       </c>
       <c r="G11">
-        <v>1487.657652549584</v>
+        <v>222.7444315297619</v>
       </c>
       <c r="H11">
-        <v>0.6243753732908764</v>
+        <v>0.6300311320566423</v>
       </c>
       <c r="I11">
-        <v>3.775415125849857</v>
+        <v>2.62020025914697</v>
       </c>
       <c r="J11">
-        <v>0.2562430994610518</v>
+        <v>0.1149422977841872</v>
       </c>
       <c r="K11">
-        <v>1.248750746581753</v>
+        <v>1.260062264113285</v>
       </c>
       <c r="L11" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="M11">
-        <v>1389.378973603741</v>
+        <v>1389.435264251677</v>
       </c>
       <c r="N11">
-        <v>1588.754435630035</v>
+        <v>266.7663051367225</v>
       </c>
       <c r="O11">
-        <v>1389.378973603741</v>
+        <v>1389.435264251677</v>
       </c>
       <c r="P11">
-        <v>2161.956783128747</v>
+        <v>332.7715524625412</v>
       </c>
       <c r="Q11">
-        <v>0.5914842725622226</v>
+        <v>0.569902273896572</v>
       </c>
       <c r="S11">
-        <v>4.762414974899071</v>
+        <v>2.776486003270527</v>
       </c>
       <c r="T11">
-        <v>0.2338344264176801</v>
+        <v>0.08455127786298439</v>
       </c>
       <c r="U11">
-        <v>1.182968545124445</v>
+        <v>1.139804547793144</v>
       </c>
       <c r="V11" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:31">
@@ -1292,61 +1280,61 @@
         <v>40</v>
       </c>
       <c r="C12">
-        <v>102.7603751106333</v>
+        <v>102.7279617431129</v>
       </c>
       <c r="D12">
-        <v>1286.618259329822</v>
+        <v>1286.714472305402</v>
       </c>
       <c r="E12">
-        <v>868.023035015299</v>
+        <v>133.0430227052952</v>
       </c>
       <c r="F12">
-        <v>1286.618259329822</v>
+        <v>1286.714472305402</v>
       </c>
       <c r="G12">
-        <v>1245.046580756047</v>
+        <v>177.1374175240348</v>
       </c>
       <c r="H12">
-        <v>0.6333468676816256</v>
+        <v>0.6281186575022535</v>
       </c>
       <c r="I12">
-        <v>3.625328474368101</v>
+        <v>2.591405711849526</v>
       </c>
       <c r="J12">
-        <v>0.1858310402414283</v>
+        <v>1.657987146463924E-07</v>
       </c>
       <c r="K12">
-        <v>1.266693735363251</v>
+        <v>1.256237315004507</v>
       </c>
       <c r="L12" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="M12">
-        <v>1389.378634440456</v>
+        <v>1389.442434048515</v>
       </c>
       <c r="N12">
-        <v>1386.555621688759</v>
+        <v>239.2283777414152</v>
       </c>
       <c r="O12">
-        <v>1389.378634440456</v>
+        <v>1389.442434048515</v>
       </c>
       <c r="P12">
-        <v>1873.049915900557</v>
+        <v>302.9381426108981</v>
       </c>
       <c r="Q12">
-        <v>0.5849931974457844</v>
+        <v>0.5076533958941518</v>
       </c>
       <c r="S12">
-        <v>4.321871886626628</v>
+        <v>2.563198989602151</v>
       </c>
       <c r="T12">
-        <v>0.2439984422201698</v>
+        <v>0.4525908214842085</v>
       </c>
       <c r="U12">
-        <v>1.169986394891569</v>
+        <v>1.015306791788304</v>
       </c>
       <c r="V12" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:31">
@@ -1357,61 +1345,61 @@
         <v>41</v>
       </c>
       <c r="C13">
-        <v>102.7518598017359</v>
+        <v>102.7589608325966</v>
       </c>
       <c r="D13">
-        <v>1286.640375210971</v>
+        <v>1286.687863435186</v>
       </c>
       <c r="E13">
-        <v>754.3527411041271</v>
+        <v>129.6909877211817</v>
       </c>
       <c r="F13">
-        <v>1286.640375210971</v>
+        <v>1286.687863435186</v>
       </c>
       <c r="G13">
-        <v>1075.608190306892</v>
+        <v>172.1620457475671</v>
       </c>
       <c r="H13">
-        <v>0.613905429729078</v>
+        <v>0.5977070268591143</v>
       </c>
       <c r="I13">
-        <v>3.043586691149467</v>
+        <v>2.071225189539845</v>
       </c>
       <c r="J13">
-        <v>0.2613669533742186</v>
+        <v>0.1280438538517664</v>
       </c>
       <c r="K13">
-        <v>1.227810859458156</v>
+        <v>1.195414053718229</v>
       </c>
       <c r="L13" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="M13">
-        <v>1389.392235012707</v>
+        <v>1389.446824267783</v>
       </c>
       <c r="N13">
-        <v>1182.120633093735</v>
+        <v>211.3186852425641</v>
       </c>
       <c r="O13">
-        <v>1389.392235012707</v>
+        <v>1389.446824267783</v>
       </c>
       <c r="P13">
-        <v>1587.718044904528</v>
+        <v>257.2465124142439</v>
       </c>
       <c r="Q13">
-        <v>0.5885791452233003</v>
+        <v>0.5703958486501929</v>
       </c>
       <c r="S13">
-        <v>3.768944246930918</v>
+        <v>6.03662305530585</v>
       </c>
       <c r="T13">
-        <v>0.2103334207223209</v>
+        <v>0.02800945184078496</v>
       </c>
       <c r="U13">
-        <v>1.177158290446601</v>
+        <v>1.140791697300386</v>
       </c>
       <c r="V13" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:31">
@@ -1422,61 +1410,61 @@
         <v>42</v>
       </c>
       <c r="C14">
-        <v>102.7540133101231</v>
+        <v>102.7265791654986</v>
       </c>
       <c r="D14">
-        <v>1286.643889621147</v>
+        <v>1286.718307870856</v>
       </c>
       <c r="E14">
-        <v>643.3711320918654</v>
+        <v>122.5320504597999</v>
       </c>
       <c r="F14">
-        <v>1286.643889621147</v>
+        <v>1286.718307870856</v>
       </c>
       <c r="G14">
-        <v>897.1267074617749</v>
+        <v>168.0098251173116</v>
       </c>
       <c r="H14">
-        <v>0.6171799754713834</v>
+        <v>0.6069227441345408</v>
       </c>
       <c r="I14">
-        <v>2.866052636563009</v>
+        <v>1.846196946929316</v>
       </c>
       <c r="J14">
-        <v>0.1786630546388181</v>
+        <v>0.1772705560722351</v>
       </c>
       <c r="K14">
-        <v>1.234359950942767</v>
+        <v>1.213845488269082</v>
       </c>
       <c r="L14" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="M14">
-        <v>1389.39790293127</v>
+        <v>1389.444887036355</v>
       </c>
       <c r="N14">
-        <v>1010.955326495503</v>
+        <v>197.0389493034565</v>
       </c>
       <c r="O14">
-        <v>1389.39790293127</v>
+        <v>1389.444887036355</v>
       </c>
       <c r="P14">
-        <v>1342.217687126686</v>
+        <v>249.6581184303026</v>
       </c>
       <c r="Q14">
-        <v>0.5872868440546061</v>
+        <v>0.5639087556810333</v>
       </c>
       <c r="S14">
-        <v>3.269118066624263</v>
+        <v>2.030623826585299</v>
       </c>
       <c r="T14">
-        <v>0.1839843118622584</v>
+        <v>0.1623267476856681</v>
       </c>
       <c r="U14">
-        <v>1.174573688109212</v>
+        <v>1.127817511362067</v>
       </c>
       <c r="V14" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:31">
@@ -1487,711 +1475,70 @@
         <v>43</v>
       </c>
       <c r="C15">
-        <v>102.7589818525441</v>
+        <v>102.7275759488025</v>
       </c>
       <c r="D15">
-        <v>1286.652604162683</v>
+        <v>1286.718182617732</v>
       </c>
       <c r="E15">
-        <v>517.4548889714441</v>
+        <v>118.6411400501713</v>
       </c>
       <c r="F15">
-        <v>1286.652604162683</v>
+        <v>1286.718182617732</v>
       </c>
       <c r="G15">
-        <v>710.1689940508686</v>
+        <v>150.6534337711264</v>
       </c>
       <c r="H15">
-        <v>0.6015143213041211</v>
+        <v>0.5964602100585439</v>
       </c>
       <c r="I15">
-        <v>2.445425623887139</v>
+        <v>2.920528500473393</v>
       </c>
       <c r="J15">
-        <v>0.2101252955257998</v>
+        <v>2.74608330463888E-07</v>
       </c>
       <c r="K15">
-        <v>1.203028642608242</v>
+        <v>1.192920420117088</v>
       </c>
       <c r="L15" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="M15">
-        <v>1389.411586015227</v>
+        <v>1389.445758566535</v>
       </c>
       <c r="N15">
-        <v>790.8830139780437</v>
+        <v>194.7495802042777</v>
       </c>
       <c r="O15">
-        <v>1389.411586015227</v>
+        <v>1389.445758566535</v>
       </c>
       <c r="P15">
-        <v>1039.79482401377</v>
+        <v>240.7645839025416</v>
       </c>
       <c r="Q15">
-        <v>0.5881585003647096</v>
+        <v>0.5678432263116792</v>
       </c>
       <c r="S15">
-        <v>2.916201723514181</v>
+        <v>2.139304568508362</v>
       </c>
       <c r="T15">
-        <v>0.1504127514405575</v>
+        <v>0.06463757350624377</v>
       </c>
       <c r="U15">
-        <v>1.176317000729419</v>
+        <v>1.135686452623358</v>
       </c>
       <c r="V15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31">
-      <c r="A16" s="1">
-        <v>0</v>
-      </c>
-      <c r="B16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16">
-        <v>102.747110005866</v>
-      </c>
-      <c r="D16">
-        <v>1286.664029876838</v>
-      </c>
-      <c r="E16">
-        <v>372.6684329478294</v>
-      </c>
-      <c r="F16">
-        <v>1286.664029876838</v>
-      </c>
-      <c r="G16">
-        <v>504.3195853907527</v>
-      </c>
-      <c r="H16">
-        <v>0.6078465418265654</v>
-      </c>
-      <c r="I16">
-        <v>2.038599564687808</v>
-      </c>
-      <c r="J16">
-        <v>0.1367751189197077</v>
-      </c>
-      <c r="K16">
-        <v>1.215693083653131</v>
-      </c>
-      <c r="L16" t="s">
-        <v>54</v>
-      </c>
-      <c r="M16">
-        <v>1389.411139882704</v>
-      </c>
-      <c r="N16">
-        <v>578.6432251127277</v>
-      </c>
-      <c r="O16">
-        <v>1389.411139882704</v>
-      </c>
-      <c r="P16">
-        <v>758.4157013093957</v>
-      </c>
-      <c r="Q16">
-        <v>0.5824245995092923</v>
-      </c>
-      <c r="S16">
-        <v>2.575621309641206</v>
-      </c>
-      <c r="T16">
-        <v>0.1704555898185356</v>
-      </c>
-      <c r="U16">
-        <v>1.164849199018585</v>
-      </c>
-      <c r="V16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22">
-      <c r="A17" s="1">
-        <v>0</v>
-      </c>
-      <c r="B17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17">
-        <v>102.7261353755528</v>
-      </c>
-      <c r="D17">
-        <v>1286.691053068673</v>
-      </c>
-      <c r="E17">
-        <v>256.092865666894</v>
-      </c>
-      <c r="F17">
-        <v>1286.691053068673</v>
-      </c>
-      <c r="G17">
-        <v>338.0018795820367</v>
-      </c>
-      <c r="H17">
-        <v>0.6028195872675581</v>
-      </c>
-      <c r="I17">
-        <v>2.031436428871599</v>
-      </c>
-      <c r="J17">
-        <v>0.0829942318726703</v>
-      </c>
-      <c r="K17">
-        <v>1.205639174535116</v>
-      </c>
-      <c r="L17" t="s">
-        <v>54</v>
-      </c>
-      <c r="M17">
-        <v>1389.417188444226</v>
-      </c>
-      <c r="N17">
-        <v>402.9534274714309</v>
-      </c>
-      <c r="O17">
-        <v>1389.417188444226</v>
-      </c>
-      <c r="P17">
-        <v>518.582067612401</v>
-      </c>
-      <c r="Q17">
-        <v>0.580364844220273</v>
-      </c>
-      <c r="S17">
-        <v>2.162756739155785</v>
-      </c>
-      <c r="T17">
-        <v>0.1254909906157466</v>
-      </c>
-      <c r="U17">
-        <v>1.160729688440546</v>
-      </c>
-      <c r="V17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22">
-      <c r="A18" s="1">
-        <v>0</v>
-      </c>
-      <c r="B18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18">
-        <v>102.7400391644062</v>
-      </c>
-      <c r="D18">
-        <v>1286.697138574245</v>
-      </c>
-      <c r="E18">
-        <v>178.3768392551922</v>
-      </c>
-      <c r="F18">
-        <v>1286.697138574245</v>
-      </c>
-      <c r="G18">
-        <v>234.5649968427893</v>
-      </c>
-      <c r="H18">
-        <v>0.6133362879299014</v>
-      </c>
-      <c r="I18">
-        <v>2.939640388897111</v>
-      </c>
-      <c r="J18">
-        <v>7.086098874342639E-09</v>
-      </c>
-      <c r="K18">
-        <v>1.226672575859803</v>
-      </c>
-      <c r="L18" t="s">
-        <v>54</v>
-      </c>
-      <c r="M18">
-        <v>1389.437177738651</v>
-      </c>
-      <c r="N18">
-        <v>290.448672408902</v>
-      </c>
-      <c r="O18">
-        <v>1389.437177738651</v>
-      </c>
-      <c r="P18">
-        <v>381.4557581912405</v>
-      </c>
-      <c r="Q18">
-        <v>0.5809587931171338</v>
-      </c>
-      <c r="S18">
-        <v>2.588402263170968</v>
-      </c>
-      <c r="T18">
-        <v>0.1770543359016655</v>
-      </c>
-      <c r="U18">
-        <v>1.161917586234268</v>
-      </c>
-      <c r="V18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22">
-      <c r="A19" s="1">
-        <v>0</v>
-      </c>
-      <c r="B19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19">
-        <v>102.7357397057604</v>
-      </c>
-      <c r="D19">
-        <v>1286.688110181762</v>
-      </c>
-      <c r="E19">
-        <v>251.7701757252595</v>
-      </c>
-      <c r="F19">
-        <v>1286.688110181762</v>
-      </c>
-      <c r="G19">
-        <v>334.6274967918648</v>
-      </c>
-      <c r="H19">
-        <v>0.5850910206415378</v>
-      </c>
-      <c r="I19">
-        <v>2.929846440127012</v>
-      </c>
-      <c r="J19">
-        <v>0.2032184038297861</v>
-      </c>
-      <c r="K19">
-        <v>1.170182041283076</v>
-      </c>
-      <c r="L19" t="s">
-        <v>54</v>
-      </c>
-      <c r="M19">
-        <v>1389.423849887522</v>
-      </c>
-      <c r="N19">
-        <v>386.8528475165399</v>
-      </c>
-      <c r="O19">
-        <v>1389.423849887522</v>
-      </c>
-      <c r="P19">
-        <v>496.5996715278083</v>
-      </c>
-      <c r="Q19">
-        <v>0.5841454993548298</v>
-      </c>
-      <c r="S19">
-        <v>2.86693753057799</v>
-      </c>
-      <c r="T19">
-        <v>0.0996347284212824</v>
-      </c>
-      <c r="U19">
-        <v>1.16829099870966</v>
-      </c>
-      <c r="V19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22">
-      <c r="A20" s="1">
-        <v>0</v>
-      </c>
-      <c r="B20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20">
-        <v>102.760837760944</v>
-      </c>
-      <c r="D20">
-        <v>1286.675291106363</v>
-      </c>
-      <c r="E20">
-        <v>220.4348053195562</v>
-      </c>
-      <c r="F20">
-        <v>1286.675291106363</v>
-      </c>
-      <c r="G20">
-        <v>279.9695573891059</v>
-      </c>
-      <c r="H20">
-        <v>0.6008281923843636</v>
-      </c>
-      <c r="I20">
-        <v>6.170170865868368</v>
-      </c>
-      <c r="J20">
-        <v>4.304212164463195E-08</v>
-      </c>
-      <c r="K20">
-        <v>1.201656384768727</v>
-      </c>
-      <c r="L20" t="s">
-        <v>54</v>
-      </c>
-      <c r="M20">
-        <v>1389.436128867307</v>
-      </c>
-      <c r="N20">
-        <v>347.4070881324222</v>
-      </c>
-      <c r="O20">
-        <v>1389.436128867307</v>
-      </c>
-      <c r="P20">
-        <v>438.5207857359011</v>
-      </c>
-      <c r="Q20">
-        <v>0.584479324821363</v>
-      </c>
-      <c r="S20">
-        <v>3.057938913041299</v>
-      </c>
-      <c r="T20">
-        <v>0.0383612605632786</v>
-      </c>
-      <c r="U20">
-        <v>1.168958649642726</v>
-      </c>
-      <c r="V20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22">
-      <c r="A21" s="1">
-        <v>0</v>
-      </c>
-      <c r="B21" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21">
-        <v>102.7590652183035</v>
-      </c>
-      <c r="D21">
-        <v>1286.684088657664</v>
-      </c>
-      <c r="E21">
-        <v>182.2221016339439</v>
-      </c>
-      <c r="F21">
-        <v>1286.684088657664</v>
-      </c>
-      <c r="G21">
-        <v>242.1120767467778</v>
-      </c>
-      <c r="H21">
-        <v>0.6181439583223443</v>
-      </c>
-      <c r="I21">
-        <v>2.913295857679111</v>
-      </c>
-      <c r="J21">
-        <v>9.881847895520934E-09</v>
-      </c>
-      <c r="K21">
-        <v>1.236287916644689</v>
-      </c>
-      <c r="L21" t="s">
-        <v>54</v>
-      </c>
-      <c r="M21">
-        <v>1389.443153875967</v>
-      </c>
-      <c r="N21">
-        <v>302.7172369569967</v>
-      </c>
-      <c r="O21">
-        <v>1389.443153875967</v>
-      </c>
-      <c r="P21">
-        <v>377.4159610173037</v>
-      </c>
-      <c r="Q21">
-        <v>0.5828683696037986</v>
-      </c>
-      <c r="S21">
-        <v>3.11027321936616</v>
-      </c>
-      <c r="T21">
-        <v>0.01265918958875883</v>
-      </c>
-      <c r="U21">
-        <v>1.165736739207597</v>
-      </c>
-      <c r="V21" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22">
-      <c r="A22" s="1">
-        <v>0</v>
-      </c>
-      <c r="B22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22">
-        <v>102.7274115530784</v>
-      </c>
-      <c r="D22">
-        <v>1286.708006810315</v>
-      </c>
-      <c r="E22">
-        <v>160.4442529909455</v>
-      </c>
-      <c r="F22">
-        <v>1286.708006810315</v>
-      </c>
-      <c r="G22">
-        <v>221.6407757223722</v>
-      </c>
-      <c r="H22">
-        <v>0.6300706975459776</v>
-      </c>
-      <c r="I22">
-        <v>2.636954478446572</v>
-      </c>
-      <c r="J22">
-        <v>0.1039963264741266</v>
-      </c>
-      <c r="K22">
-        <v>1.260141395091955</v>
-      </c>
-      <c r="L22" t="s">
-        <v>54</v>
-      </c>
-      <c r="M22">
-        <v>1389.435418363393</v>
-      </c>
-      <c r="N22">
-        <v>263.9435101161188</v>
-      </c>
-      <c r="O22">
-        <v>1389.435418363393</v>
-      </c>
-      <c r="P22">
-        <v>322.877700248831</v>
-      </c>
-      <c r="Q22">
-        <v>0.5733856826747771</v>
-      </c>
-      <c r="S22">
-        <v>2.926256665146277</v>
-      </c>
-      <c r="T22">
-        <v>8.47439229900715E-10</v>
-      </c>
-      <c r="U22">
-        <v>1.146771365349554</v>
-      </c>
-      <c r="V22" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22">
-      <c r="A23" s="1">
-        <v>0</v>
-      </c>
-      <c r="B23" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23">
-        <v>102.7294585455768</v>
-      </c>
-      <c r="D23">
-        <v>1286.714214813913</v>
-      </c>
-      <c r="E23">
-        <v>131.4896047604381</v>
-      </c>
-      <c r="F23">
-        <v>1286.714214813913</v>
-      </c>
-      <c r="G23">
-        <v>173.8115290126838</v>
-      </c>
-      <c r="H23">
-        <v>0.6201737854510208</v>
-      </c>
-      <c r="I23">
-        <v>2.81585469559739</v>
-      </c>
-      <c r="J23">
-        <v>1.282423729487281E-06</v>
-      </c>
-      <c r="K23">
-        <v>1.240347570902042</v>
-      </c>
-      <c r="L23" t="s">
-        <v>54</v>
-      </c>
-      <c r="M23">
-        <v>1389.44367335949</v>
-      </c>
-      <c r="N23">
-        <v>234.9466701595559</v>
-      </c>
-      <c r="O23">
-        <v>1389.44367335949</v>
-      </c>
-      <c r="P23">
-        <v>291.5375210180215</v>
-      </c>
-      <c r="Q23">
-        <v>0.5151289151683387</v>
-      </c>
-      <c r="S23">
-        <v>2.823590178105126</v>
-      </c>
-      <c r="T23">
-        <v>0.3522014668286774</v>
-      </c>
-      <c r="U23">
-        <v>1.030257830336677</v>
-      </c>
-      <c r="V23" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22">
-      <c r="A24" s="1">
-        <v>0</v>
-      </c>
-      <c r="B24" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24">
-        <v>102.7583405048781</v>
-      </c>
-      <c r="D24">
-        <v>1286.688454052106</v>
-      </c>
-      <c r="E24">
-        <v>128.1359562208719</v>
-      </c>
-      <c r="F24">
-        <v>1286.688454052106</v>
-      </c>
-      <c r="G24">
-        <v>165.6744209583415</v>
-      </c>
-      <c r="H24">
-        <v>0.6033878851688016</v>
-      </c>
-      <c r="I24">
-        <v>2.125813185643882</v>
-      </c>
-      <c r="J24">
-        <v>0.01759631722666255</v>
-      </c>
-      <c r="K24">
-        <v>1.206775770337603</v>
-      </c>
-      <c r="L24" t="s">
-        <v>54</v>
-      </c>
-      <c r="M24">
-        <v>1389.446794556984</v>
-      </c>
-      <c r="N24">
-        <v>210.545277017997</v>
-      </c>
-      <c r="O24">
-        <v>1389.446794556984</v>
-      </c>
-      <c r="P24">
-        <v>254.5431175238768</v>
-      </c>
-      <c r="Q24">
-        <v>0.5712310192364713</v>
-      </c>
-      <c r="S24">
-        <v>5.058376820206903</v>
-      </c>
-      <c r="T24">
-        <v>4.282280933726179E-05</v>
-      </c>
-      <c r="U24">
-        <v>1.142462038472943</v>
-      </c>
-      <c r="V24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22">
-      <c r="A25" s="1">
-        <v>0</v>
-      </c>
-      <c r="B25" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25">
-        <v>102.7275376743528</v>
-      </c>
-      <c r="D25">
-        <v>1286.71845160249</v>
-      </c>
-      <c r="E25">
-        <v>119.5631493556455</v>
-      </c>
-      <c r="F25">
-        <v>1286.71845160249</v>
-      </c>
-      <c r="G25">
-        <v>155.8493727634209</v>
-      </c>
-      <c r="H25">
-        <v>0.6104023623673037</v>
-      </c>
-      <c r="I25">
-        <v>1.999744624216307</v>
-      </c>
-      <c r="J25">
-        <v>9.926504063173525E-12</v>
-      </c>
-      <c r="K25">
-        <v>1.220804724734607</v>
-      </c>
-      <c r="L25" t="s">
-        <v>54</v>
-      </c>
-      <c r="M25">
-        <v>1389.445989276843</v>
-      </c>
-      <c r="N25">
-        <v>194.0037426924437</v>
-      </c>
-      <c r="O25">
-        <v>1389.445989276843</v>
-      </c>
-      <c r="P25">
-        <v>238.4647392408212</v>
-      </c>
-      <c r="Q25">
-        <v>0.5688898866785065</v>
-      </c>
-      <c r="S25">
-        <v>2.090241659783894</v>
-      </c>
-      <c r="T25">
-        <v>0.03802131325530972</v>
-      </c>
-      <c r="U25">
-        <v>1.137779773357013</v>
-      </c>
-      <c r="V25" t="s">
-        <v>54</v>
+        <v>44</v>
+      </c>
+      <c r="W15">
+        <v>1266.483830815264</v>
+      </c>
+      <c r="X15">
+        <v>8.158998109299452</v>
+      </c>
+      <c r="Y15">
+        <v>0.4552226987864352</v>
       </c>
     </row>
   </sheetData>
